--- a/Orders.xlsx
+++ b/Orders.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>ID заявки</t>
   </si>
@@ -101,94 +101,130 @@
     <t>new</t>
   </si>
   <si>
-    <t>2023-03-12 00:48:14</t>
+    <t>2023-06-13 00:51:58</t>
   </si>
   <si>
     <t>Отказ</t>
   </si>
   <si>
+    <t>Причина отказа: негативные факторы в кредитной истории по микрокредитам.</t>
+  </si>
+  <si>
+    <t>Проверка не пройдена</t>
+  </si>
+  <si>
+    <t>2023-06-13 01:06:24</t>
+  </si>
+  <si>
+    <t>Займ выдан</t>
+  </si>
+  <si>
+    <t>Проверка пройдена</t>
+  </si>
+  <si>
+    <t>2023-06-13 02:18:12</t>
+  </si>
+  <si>
+    <t>2023-06-13 03:35:52</t>
+  </si>
+  <si>
+    <t>2023-06-13 04:54:40</t>
+  </si>
+  <si>
+    <t>2023-06-13 05:30:06</t>
+  </si>
+  <si>
+    <t>2023-06-13 05:30:46</t>
+  </si>
+  <si>
+    <t>Причина отказа: наличие задолженности на сайте судебных приставов.</t>
+  </si>
+  <si>
+    <t>2023-06-13 05:59:51</t>
+  </si>
+  <si>
+    <t>2023-06-13 07:01:47</t>
+  </si>
+  <si>
+    <t>2023-06-13 07:10:35</t>
+  </si>
+  <si>
+    <t>2023-06-13 08:17:47</t>
+  </si>
+  <si>
+    <t>2023-06-13 10:22:34</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>2023-06-13 10:34:23</t>
+  </si>
+  <si>
+    <t>2023-06-13 10:34:52</t>
+  </si>
+  <si>
     <t>Причина отказа: негативные факторы в кредитной истории.</t>
   </si>
   <si>
-    <t>Проверка пройдена</t>
-  </si>
-  <si>
-    <t>2023-03-12 05:39:59</t>
-  </si>
-  <si>
-    <t>2023-03-12 06:57:44</t>
-  </si>
-  <si>
-    <t>Причина отказа: негативные факторы в кредитной истории по микрокредитам.</t>
-  </si>
-  <si>
-    <t>Проверка не пройдена</t>
-  </si>
-  <si>
-    <t>2023-03-12 08:15:13</t>
-  </si>
-  <si>
-    <t>2023-03-12 10:15:33</t>
-  </si>
-  <si>
-    <t>2023-03-12 10:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-12 11:43:23</t>
-  </si>
-  <si>
-    <t>2023-03-12 11:49:40</t>
-  </si>
-  <si>
-    <t>2023-03-12 12:26:12</t>
-  </si>
-  <si>
-    <t>2023-03-12 13:10:05</t>
-  </si>
-  <si>
-    <t>2023-03-12 13:21:53</t>
-  </si>
-  <si>
-    <t>2023-03-12 13:29:30</t>
-  </si>
-  <si>
-    <t>2023-03-12 14:07:57</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>2023-03-12 15:43:03</t>
-  </si>
-  <si>
-    <t>2023-03-12 17:11:14</t>
-  </si>
-  <si>
-    <t>2023-03-12 18:34:13</t>
-  </si>
-  <si>
-    <t>2023-03-12 18:38:03</t>
-  </si>
-  <si>
-    <t>2023-03-12 18:47:50</t>
-  </si>
-  <si>
-    <t>2023-03-12 19:02:49</t>
-  </si>
-  <si>
-    <t>2023-03-12 19:04:38</t>
-  </si>
-  <si>
-    <t>2023-03-12 20:55:07</t>
-  </si>
-  <si>
-    <t>2023-03-12 21:53:50</t>
-  </si>
-  <si>
-    <t>2023-03-12 23:33:42</t>
-  </si>
-  <si>
-    <t>2023-03-12 23:36:35</t>
+    <t>2023-06-13 11:05:00</t>
+  </si>
+  <si>
+    <t>Одобрена</t>
+  </si>
+  <si>
+    <t>2023-06-13 11:27:01</t>
+  </si>
+  <si>
+    <t>2023-06-13 11:40:46</t>
+  </si>
+  <si>
+    <t>2023-06-13 11:47:43</t>
+  </si>
+  <si>
+    <t>2023-06-13 11:56:21</t>
+  </si>
+  <si>
+    <t>2023-06-13 12:26:21</t>
+  </si>
+  <si>
+    <t>2023-06-13 12:32:02</t>
+  </si>
+  <si>
+    <t>2023-06-13 13:01:28</t>
+  </si>
+  <si>
+    <t>2023-06-13 13:29:58</t>
+  </si>
+  <si>
+    <t>2023-06-13 13:38:45</t>
+  </si>
+  <si>
+    <t>2023-06-13 13:54:21</t>
+  </si>
+  <si>
+    <t>2023-06-13 13:59:51</t>
+  </si>
+  <si>
+    <t>2023-06-13 14:09:46</t>
+  </si>
+  <si>
+    <t>2023-06-13 14:10:37</t>
+  </si>
+  <si>
+    <t>2023-06-13 14:10:56</t>
+  </si>
+  <si>
+    <t>2023-06-13 14:26:10</t>
+  </si>
+  <si>
+    <t>2023-06-13 14:45:02</t>
+  </si>
+  <si>
+    <t>2023-06-13 15:01:58</t>
+  </si>
+  <si>
+    <t>2023-06-13 15:26:22</t>
   </si>
 </sst>
 </file>
@@ -527,7 +563,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:AC1048576"/>
@@ -657,10 +693,10 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="1">
-        <v>38618</v>
+        <v>45997</v>
       </c>
       <c r="B2" s="1">
-        <v>29708</v>
+        <v>39643</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>27</v>
@@ -675,54 +711,54 @@
         <v>30</v>
       </c>
       <c r="G2" s="1">
-        <v>408</v>
+        <v>-604</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I2" s="1">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1">
         <v>16</v>
       </c>
-      <c r="K2" s="1">
-        <v>3</v>
-      </c>
       <c r="L2" s="1">
-        <v>0.094022953446052</v>
+        <v>0.77247876652566</v>
       </c>
       <c r="M2" s="1">
-        <v>0</v>
+        <v>0.77247876652566</v>
       </c>
       <c r="N2" s="1">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="O2" s="1">
-        <v>237500</v>
+        <v>131135</v>
       </c>
       <c r="P2" s="1">
-        <v>30000</v>
+        <v>139882</v>
       </c>
       <c r="Q2" s="1">
-        <v>521867</v>
+        <v>41200</v>
       </c>
       <c r="R2" s="1">
         <v>0</v>
       </c>
       <c r="S2" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="T2" s="1">
-        <v>100000</v>
+        <v>41200</v>
       </c>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="1">
-        <v>38619</v>
+        <v>45998</v>
       </c>
       <c r="B3" s="1">
-        <v>31042</v>
+        <v>39645</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>27</v>
@@ -731,122 +767,118 @@
         <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1">
         <v>3000</v>
       </c>
-      <c r="J3" s="1">
-        <v>11</v>
-      </c>
+      <c r="J3" s="1"/>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1">
-        <v>0.14098122935632</v>
+        <v>0.0078787312715305</v>
       </c>
       <c r="M3" s="1">
-        <v>0.017902378330961</v>
+        <v>0.0078787312715305</v>
       </c>
       <c r="N3" s="1">
-        <v>22000</v>
+        <v>53470</v>
       </c>
       <c r="O3" s="1">
-        <v>64900</v>
+        <v>1015055</v>
       </c>
       <c r="P3" s="1">
-        <v>30000</v>
+        <v>18642</v>
       </c>
       <c r="Q3" s="1">
-        <v>381968</v>
+        <v>2347475</v>
       </c>
       <c r="R3" s="1">
-        <v>0</v>
+        <v>254566</v>
       </c>
       <c r="S3" s="1">
-        <v>87470</v>
+        <v>0</v>
       </c>
       <c r="T3" s="1">
-        <v>1045141</v>
+        <v>2347475</v>
       </c>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="1">
-        <v>38621</v>
+        <v>45999</v>
       </c>
       <c r="B4" s="1">
-        <v>32084</v>
+        <v>39648</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1">
-        <v>141</v>
+        <v>-75</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>0.35238463976089</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
+        <v>0.35238463976089</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>11900</v>
       </c>
       <c r="O4" s="1">
-        <v>44599</v>
+        <v>603323</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>285785</v>
       </c>
       <c r="Q4" s="1">
-        <v>36588</v>
+        <v>525218</v>
       </c>
       <c r="R4" s="1">
-        <v>0</v>
+        <v>368789</v>
       </c>
       <c r="S4" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1">
-        <v>2229853</v>
+        <v>525218</v>
       </c>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="1">
-        <v>38623</v>
+        <v>46002</v>
       </c>
       <c r="B5" s="1">
-        <v>29399</v>
+        <v>39652</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>27</v>
@@ -861,54 +893,54 @@
         <v>30</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>-159</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="1">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>0.38980022738347</v>
       </c>
       <c r="M5" s="1">
-        <v>0</v>
+        <v>0.38980022738347</v>
       </c>
       <c r="N5" s="1">
-        <v>0</v>
+        <v>18500</v>
       </c>
       <c r="O5" s="1">
-        <v>180900</v>
+        <v>50908</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="Q5" s="1">
-        <v>398904</v>
+        <v>37570</v>
       </c>
       <c r="R5" s="1">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="S5" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>664243</v>
+        <v>37570</v>
       </c>
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="1">
-        <v>38625</v>
+        <v>46004</v>
       </c>
       <c r="B6" s="1">
-        <v>32088</v>
+        <v>39656</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
@@ -923,54 +955,54 @@
         <v>30</v>
       </c>
       <c r="G6" s="1">
-        <v>446</v>
+        <v>-670</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I6" s="1">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L6" s="1">
-        <v>0.003644669064049</v>
+        <v>0.55529122084966</v>
       </c>
       <c r="M6" s="1">
-        <v>0.003644669064049</v>
+        <v>0.55529122084966</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>4490</v>
       </c>
       <c r="O6" s="1">
-        <v>149899</v>
+        <v>27330</v>
       </c>
       <c r="P6" s="1">
-        <v>3000</v>
+        <v>186730</v>
       </c>
       <c r="Q6" s="1">
-        <v>685120</v>
+        <v>149544</v>
       </c>
       <c r="R6" s="1">
-        <v>0</v>
+        <v>59614</v>
       </c>
       <c r="S6" s="1">
-        <v>75520</v>
+        <v>0</v>
       </c>
       <c r="T6" s="1">
-        <v>1498076</v>
+        <v>149544</v>
       </c>
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="1">
-        <v>38628</v>
+        <v>46006</v>
       </c>
       <c r="B7" s="1">
-        <v>32092</v>
+        <v>39660</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>27</v>
@@ -985,54 +1017,52 @@
         <v>30</v>
       </c>
       <c r="G7" s="1">
-        <v>419</v>
+        <v>-189</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="J7" s="1">
-        <v>20</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1"/>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L7" s="1">
-        <v>0.012078494107037</v>
+        <v>0.41042633034109</v>
       </c>
       <c r="M7" s="1">
-        <v>0.012078494107037</v>
+        <v>0.41042633034109</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="O7" s="1">
-        <v>111000</v>
+        <v>306325</v>
       </c>
       <c r="P7" s="1">
-        <v>5000</v>
+        <v>161213</v>
       </c>
       <c r="Q7" s="1">
-        <v>534126</v>
+        <v>231581</v>
       </c>
       <c r="R7" s="1">
-        <v>0</v>
+        <v>88640</v>
       </c>
       <c r="S7" s="1">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>154282</v>
+        <v>231581</v>
       </c>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="1">
-        <v>38630</v>
+        <v>46007</v>
       </c>
       <c r="B8" s="1">
-        <v>32060</v>
+        <v>39659</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
@@ -1044,123 +1074,123 @@
         <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G8" s="1">
-        <v>151</v>
+        <v>-1138</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K8" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L8" s="1">
-        <v>0.028031095828973</v>
+        <v>0.77692442518205</v>
       </c>
       <c r="M8" s="1">
-        <v>0.028031095828973</v>
+        <v>0.77692442518205</v>
       </c>
       <c r="N8" s="1">
-        <v>27000</v>
+        <v>11000</v>
       </c>
       <c r="O8" s="1">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>13500</v>
+        <v>48759</v>
       </c>
       <c r="Q8" s="1">
-        <v>381708</v>
+        <v>14000</v>
       </c>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>21259</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>0</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="1">
-        <v>38631</v>
+        <v>46009</v>
       </c>
       <c r="B9" s="1">
-        <v>32095</v>
+        <v>39664</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1">
-        <v>314</v>
+        <v>505</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I9" s="1">
         <v>3000</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>0.032092511747259</v>
       </c>
       <c r="M9" s="1">
-        <v>0</v>
+        <v>0.032092511747259</v>
       </c>
       <c r="N9" s="1">
-        <v>0</v>
+        <v>6750</v>
       </c>
       <c r="O9" s="1">
-        <v>51899</v>
+        <v>239331</v>
       </c>
       <c r="P9" s="1">
-        <v>0</v>
+        <v>14445</v>
       </c>
       <c r="Q9" s="1">
-        <v>85989</v>
+        <v>435660</v>
       </c>
       <c r="R9" s="1">
-        <v>0</v>
+        <v>155870</v>
       </c>
       <c r="S9" s="1">
-        <v>73395</v>
+        <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>545008</v>
+        <v>435660</v>
       </c>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="1">
-        <v>38636</v>
+        <v>46011</v>
       </c>
       <c r="B10" s="1">
-        <v>32059</v>
+        <v>39667</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>29</v>
@@ -1169,551 +1199,547 @@
         <v>30</v>
       </c>
       <c r="G10" s="1">
-        <v>322</v>
+        <v>-782</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I10" s="1">
-        <v>3000</v>
-      </c>
-      <c r="J10" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>8</v>
+      </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>0.66942868161534</v>
       </c>
       <c r="M10" s="1">
-        <v>0</v>
+        <v>0.66942868161534</v>
       </c>
       <c r="N10" s="1">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="O10" s="1">
-        <v>95956</v>
+        <v>17279</v>
       </c>
       <c r="P10" s="1">
-        <v>0</v>
+        <v>60754</v>
       </c>
       <c r="Q10" s="1">
-        <v>181286</v>
+        <v>30001</v>
       </c>
       <c r="R10" s="1">
-        <v>0</v>
+        <v>34251</v>
       </c>
       <c r="S10" s="1">
-        <v>101900</v>
+        <v>0</v>
       </c>
       <c r="T10" s="1">
-        <v>101900</v>
+        <v>30001</v>
       </c>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="1">
-        <v>38637</v>
+        <v>46013</v>
       </c>
       <c r="B11" s="1">
-        <v>32098</v>
+        <v>39669</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>691</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G11" s="1">
-        <v>551</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="I11" s="1">
         <v>3000</v>
       </c>
       <c r="J11" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
       </c>
       <c r="L11" s="1">
-        <v>0.093363358499976</v>
+        <v>0.022860748323736</v>
       </c>
       <c r="M11" s="1">
-        <v>0.058495091347971</v>
+        <v>0.022860748323736</v>
       </c>
       <c r="N11" s="1">
-        <v>18755</v>
+        <v>21200</v>
       </c>
       <c r="O11" s="1">
-        <v>252728</v>
+        <v>309457</v>
       </c>
       <c r="P11" s="1">
-        <v>18755</v>
+        <v>10000</v>
       </c>
       <c r="Q11" s="1">
-        <v>284512</v>
+        <v>427431</v>
       </c>
       <c r="R11" s="1">
-        <v>0</v>
+        <v>104722</v>
       </c>
       <c r="S11" s="1">
-        <v>104000</v>
+        <v>0</v>
       </c>
       <c r="T11" s="1">
-        <v>303020</v>
+        <v>427431</v>
       </c>
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="1">
-        <v>38638</v>
+        <v>46015</v>
       </c>
       <c r="B12" s="1">
-        <v>32101</v>
+        <v>39671</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G12" s="1">
-        <v>483</v>
+        <v>-728</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I12" s="1">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L12" s="1">
-        <v>0.25071026300695</v>
+        <v>0.74190493787242</v>
       </c>
       <c r="M12" s="1">
-        <v>0</v>
+        <v>0.74190493787242</v>
       </c>
       <c r="N12" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="O12" s="1">
-        <v>131500</v>
+        <v>20000</v>
       </c>
       <c r="P12" s="1">
-        <v>28425</v>
+        <v>128492</v>
       </c>
       <c r="Q12" s="1">
-        <v>242129</v>
+        <v>44700</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>7628930</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="1">
-        <v>38639</v>
+        <v>46026</v>
       </c>
       <c r="B13" s="1">
-        <v>32103</v>
+        <v>38982</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1">
-        <v>-247</v>
+        <v>171</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1">
-        <v>0.59147906278036</v>
+        <v>0.077235772357724</v>
       </c>
       <c r="M13" s="1">
-        <v>0.26902292975026</v>
+        <v>0.077235772357724</v>
       </c>
       <c r="N13" s="1">
-        <v>25000</v>
+        <v>4474</v>
       </c>
       <c r="O13" s="1">
-        <v>4900</v>
+        <v>45400</v>
       </c>
       <c r="P13" s="1">
-        <v>25000</v>
+        <v>3800</v>
       </c>
       <c r="Q13" s="1">
-        <v>115000</v>
+        <v>45400</v>
       </c>
       <c r="R13" s="1">
-        <v>0</v>
+        <v>10674</v>
       </c>
       <c r="S13" s="1">
         <v>0</v>
       </c>
       <c r="T13" s="1">
-        <v>0</v>
+        <v>45400</v>
       </c>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="1">
-        <v>38640</v>
+        <v>46028</v>
       </c>
       <c r="B14" s="1">
-        <v>26900</v>
+        <v>19899</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="1">
-        <v>370</v>
+        <v>262</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I14" s="1">
         <v>3000</v>
       </c>
       <c r="J14" s="1">
-        <v>8</v>
-      </c>
-      <c r="K14" s="1">
+        <v>18</v>
+      </c>
+      <c r="U14" s="1">
+        <v>158</v>
+      </c>
+      <c r="V14" s="1">
         <v>1</v>
       </c>
-      <c r="L14" s="1">
-        <v>0.13227075824212</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
-        <v>11179</v>
-      </c>
-      <c r="O14" s="1">
-        <v>35579</v>
-      </c>
-      <c r="P14" s="1">
-        <v>25000</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>122984</v>
-      </c>
-      <c r="R14" s="1">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1">
-        <v>60000</v>
-      </c>
-      <c r="T14" s="1">
-        <v>394856</v>
+      <c r="W14" s="1">
+        <v>5100</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>112996</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>0.83366482238214</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>26.406047745358</v>
       </c>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="1">
-        <v>38643</v>
+        <v>46029</v>
       </c>
       <c r="B15" s="1">
-        <v>24223</v>
+        <v>39682</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G15" s="1">
-        <v>375</v>
+        <v>527</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I15" s="1">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="J15" s="1">
-        <v>27</v>
-      </c>
-      <c r="U15" s="1">
-        <v>16</v>
-      </c>
-      <c r="V15" s="1">
-        <v>0</v>
-      </c>
-      <c r="W15" s="1">
-        <v>3762.9</v>
-      </c>
-      <c r="X15" s="1">
-        <v>14</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>14</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>67967</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>0.54727345862412</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>3</v>
-      </c>
-      <c r="AC15" s="1">
-        <v>28.792454545455</v>
+        <v>7</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.10082666406962</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.10082666406962</v>
+      </c>
+      <c r="N15" s="1">
+        <v>16000</v>
+      </c>
+      <c r="O15" s="1">
+        <v>809785</v>
+      </c>
+      <c r="P15" s="1">
+        <v>88000</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>784785</v>
+      </c>
+      <c r="R15" s="1">
+        <v>15420</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>784785</v>
       </c>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="1">
-        <v>38645</v>
+        <v>46032</v>
       </c>
       <c r="B16" s="1">
-        <v>30381</v>
+        <v>39686</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="1">
-        <v>479</v>
+        <v>352</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I16" s="1">
         <v>3000</v>
       </c>
       <c r="J16" s="1">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="K16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16" s="1">
-        <v>0</v>
+        <v>0.18622289187222</v>
       </c>
       <c r="M16" s="1">
-        <v>0</v>
+        <v>0.18622289187222</v>
       </c>
       <c r="N16" s="1">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O16" s="1">
-        <v>142400</v>
+        <v>137000</v>
       </c>
       <c r="P16" s="1">
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="Q16" s="1">
-        <v>590222</v>
+        <v>192276</v>
       </c>
       <c r="R16" s="1">
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="S16" s="1">
-        <v>2670406</v>
+        <v>0</v>
       </c>
       <c r="T16" s="1">
-        <v>4329847</v>
+        <v>192276</v>
       </c>
     </row>
     <row r="17" spans="1:29">
       <c r="A17" s="1">
-        <v>38647</v>
+        <v>46033</v>
       </c>
       <c r="B17" s="1">
-        <v>28435</v>
+        <v>39688</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G17" s="1">
-        <v>460</v>
+        <v>579</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I17" s="1">
         <v>3000</v>
       </c>
       <c r="J17" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L17" s="1">
-        <v>0.059975627216639</v>
+        <v>0.023952138622109</v>
       </c>
       <c r="M17" s="1">
-        <v>0.035384253870409</v>
+        <v>0.023952138622109</v>
       </c>
       <c r="N17" s="1">
-        <v>0</v>
+        <v>10716</v>
       </c>
       <c r="O17" s="1">
-        <v>194365</v>
+        <v>535741</v>
       </c>
       <c r="P17" s="1">
-        <v>9450</v>
+        <v>13400</v>
       </c>
       <c r="Q17" s="1">
-        <v>307325</v>
+        <v>546049</v>
       </c>
       <c r="R17" s="1">
-        <v>0</v>
+        <v>87960</v>
       </c>
       <c r="S17" s="1">
-        <v>140990</v>
+        <v>0</v>
       </c>
       <c r="T17" s="1">
-        <v>222374</v>
+        <v>546049</v>
       </c>
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="1">
-        <v>38648</v>
+        <v>46036</v>
       </c>
       <c r="B18" s="1">
-        <v>32121</v>
+        <v>39691</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G18" s="1">
-        <v>-385</v>
+        <v>-163</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
       </c>
       <c r="J18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L18" s="1">
-        <v>0.25011970093183</v>
+        <v>0.32276816311006</v>
       </c>
       <c r="M18" s="1">
-        <v>0.25011970093183</v>
+        <v>0.32276816311006</v>
       </c>
       <c r="N18" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="O18" s="1">
-        <v>9000</v>
+        <v>228853</v>
       </c>
       <c r="P18" s="1">
-        <v>6791</v>
+        <v>89950</v>
       </c>
       <c r="Q18" s="1">
-        <v>24151</v>
+        <v>188733</v>
       </c>
       <c r="R18" s="1">
-        <v>0</v>
+        <v>23780</v>
       </c>
       <c r="S18" s="1">
         <v>0</v>
       </c>
       <c r="T18" s="1">
-        <v>0</v>
+        <v>188733</v>
       </c>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="1">
-        <v>38650</v>
+        <v>46037</v>
       </c>
       <c r="B19" s="1">
-        <v>32123</v>
+        <v>39692</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>29</v>
@@ -1722,177 +1748,180 @@
         <v>30</v>
       </c>
       <c r="G19" s="1">
-        <v>373</v>
+        <v>51</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I19" s="1">
-        <v>3000</v>
-      </c>
-      <c r="J19" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>19</v>
+      </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L19" s="1">
-        <v>0</v>
+        <v>0.15680435153702</v>
       </c>
       <c r="M19" s="1">
-        <v>0</v>
+        <v>0.15680435153702</v>
       </c>
       <c r="N19" s="1">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="O19" s="1">
-        <v>214000</v>
+        <v>405380</v>
       </c>
       <c r="P19" s="1">
-        <v>0</v>
+        <v>135950</v>
       </c>
       <c r="Q19" s="1">
-        <v>225000</v>
+        <v>731054</v>
       </c>
       <c r="R19" s="1">
-        <v>0</v>
+        <v>296304</v>
       </c>
       <c r="S19" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="T19" s="1">
-        <v>316000</v>
+        <v>731054</v>
       </c>
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="1">
-        <v>38651</v>
+        <v>46039</v>
       </c>
       <c r="B20" s="1">
-        <v>32125</v>
+        <v>39694</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1">
-        <v>489</v>
+        <v>346</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I20" s="1">
         <v>3000</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
       <c r="K20" s="1">
         <v>0</v>
       </c>
       <c r="L20" s="1">
-        <v>0.03333001625369</v>
+        <v>0</v>
       </c>
       <c r="M20" s="1">
-        <v>0.00015921982286795</v>
+        <v>0</v>
       </c>
       <c r="N20" s="1">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="O20" s="1">
-        <v>141505</v>
+        <v>235450</v>
       </c>
       <c r="P20" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="1">
-        <v>235970</v>
+        <v>235450</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
       </c>
       <c r="S20" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="T20" s="1">
-        <v>2657328</v>
+        <v>235450</v>
       </c>
     </row>
     <row r="21" spans="1:29">
       <c r="A21" s="1">
-        <v>38652</v>
+        <v>46040</v>
       </c>
       <c r="B21" s="1">
-        <v>14586</v>
+        <v>39696</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1">
+        <v>343</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G21" s="1">
-        <v>149</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="I21" s="1">
         <v>3000</v>
       </c>
       <c r="J21" s="1">
-        <v>39</v>
-      </c>
-      <c r="U21" s="1">
-        <v>71</v>
-      </c>
-      <c r="V21" s="1">
-        <v>1</v>
-      </c>
-      <c r="W21" s="1">
-        <v>4412.7</v>
-      </c>
-      <c r="X21" s="1">
-        <v>38</v>
-      </c>
-      <c r="Y21" s="1">
-        <v>38</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>114163</v>
-      </c>
-      <c r="AA21" s="1">
-        <v>0.27507519466141</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>8</v>
-      </c>
-      <c r="AC21" s="1">
-        <v>14.174602272727</v>
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.023746260666497</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.023746260666497</v>
+      </c>
+      <c r="N21" s="1">
+        <v>3000</v>
+      </c>
+      <c r="O21" s="1">
+        <v>721691</v>
+      </c>
+      <c r="P21" s="1">
+        <v>16900</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>694791</v>
+      </c>
+      <c r="R21" s="1">
+        <v>9500</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>694791</v>
       </c>
     </row>
     <row r="22" spans="1:29">
       <c r="A22" s="1">
-        <v>38654</v>
+        <v>46041</v>
       </c>
       <c r="B22" s="1">
-        <v>32128</v>
+        <v>39697</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>29</v>
@@ -1901,120 +1930,120 @@
         <v>30</v>
       </c>
       <c r="G22" s="1">
-        <v>382</v>
+        <v>-133</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I22" s="1">
-        <v>3000</v>
-      </c>
-      <c r="J22" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>4</v>
+      </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L22" s="1">
-        <v>0</v>
+        <v>0.20527010381841</v>
       </c>
       <c r="M22" s="1">
-        <v>0</v>
+        <v>0.20527010381841</v>
       </c>
       <c r="N22" s="1">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="O22" s="1">
-        <v>109198</v>
+        <v>137346</v>
       </c>
       <c r="P22" s="1">
-        <v>0</v>
+        <v>46662</v>
       </c>
       <c r="Q22" s="1">
-        <v>191027</v>
+        <v>180658</v>
       </c>
       <c r="R22" s="1">
-        <v>0</v>
+        <v>29000</v>
       </c>
       <c r="S22" s="1">
-        <v>71000</v>
+        <v>0</v>
       </c>
       <c r="T22" s="1">
-        <v>627442</v>
+        <v>180658</v>
       </c>
     </row>
     <row r="23" spans="1:29">
       <c r="A23" s="1">
-        <v>38656</v>
+        <v>46046</v>
       </c>
       <c r="B23" s="1">
-        <v>28286</v>
+        <v>39702</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G23" s="1">
-        <v>295</v>
+        <v>-604</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
       </c>
-      <c r="J23" s="1">
-        <v>15</v>
-      </c>
+      <c r="J23" s="1"/>
       <c r="K23" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L23" s="1">
-        <v>0.050377823349256</v>
+        <v>0.77025462473908</v>
       </c>
       <c r="M23" s="1">
-        <v>0.032823855223132</v>
+        <v>0.77025462473908</v>
       </c>
       <c r="N23" s="1">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O23" s="1">
-        <v>94051</v>
+        <v>128281</v>
       </c>
       <c r="P23" s="1">
-        <v>15000</v>
+        <v>91145</v>
       </c>
       <c r="Q23" s="1">
-        <v>864040</v>
+        <v>27186</v>
       </c>
       <c r="R23" s="1">
-        <v>0</v>
+        <v>18478</v>
       </c>
       <c r="S23" s="1">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="T23" s="1">
-        <v>55000</v>
+        <v>27186</v>
       </c>
     </row>
     <row r="24" spans="1:29">
       <c r="A24" s="1">
-        <v>38659</v>
+        <v>46048</v>
       </c>
       <c r="B24" s="1">
-        <v>30422</v>
+        <v>39705</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>29</v>
@@ -2023,106 +2052,650 @@
         <v>30</v>
       </c>
       <c r="G24" s="1">
-        <v>343</v>
+        <v>117</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I24" s="1">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L24" s="1">
-        <v>0</v>
+        <v>0.059731724497387</v>
       </c>
       <c r="M24" s="1">
-        <v>0</v>
+        <v>0.059731724497387</v>
       </c>
       <c r="N24" s="1">
-        <v>21179</v>
+        <v>9990</v>
       </c>
       <c r="O24" s="1">
-        <v>203974</v>
+        <v>1123083</v>
       </c>
       <c r="P24" s="1">
-        <v>0</v>
+        <v>90650</v>
       </c>
       <c r="Q24" s="1">
-        <v>88358</v>
+        <v>1426969</v>
       </c>
       <c r="R24" s="1">
-        <v>0</v>
+        <v>130765</v>
       </c>
       <c r="S24" s="1">
-        <v>317000</v>
+        <v>0</v>
       </c>
       <c r="T24" s="1">
-        <v>1653764</v>
+        <v>1426969</v>
       </c>
     </row>
     <row r="25" spans="1:29">
       <c r="A25" s="1">
-        <v>38660</v>
+        <v>46052</v>
       </c>
       <c r="B25" s="1">
-        <v>32132</v>
+        <v>39709</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-315</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>35</v>
+      </c>
+      <c r="K25" s="1">
+        <v>37</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.65663109935536</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.65663109935536</v>
+      </c>
+      <c r="N25" s="1">
+        <v>14700</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1841636</v>
+      </c>
+      <c r="P25" s="1">
+        <v>2370783</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>1239742</v>
+      </c>
+      <c r="R25" s="1">
+        <v>1359482</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>1239742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="A26" s="1">
+        <v>46054</v>
+      </c>
+      <c r="B26" s="1">
+        <v>39713</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="1">
+        <v>-178</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1">
+        <v>7</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.22481275604554</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.22481275604554</v>
+      </c>
+      <c r="N26" s="1">
+        <v>5430</v>
+      </c>
+      <c r="O26" s="1">
+        <v>151355</v>
+      </c>
+      <c r="P26" s="1">
+        <v>41212</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>142105</v>
+      </c>
+      <c r="R26" s="1">
+        <v>14990</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>142105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="A27" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B27" s="1">
+        <v>39708</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-512</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>6</v>
+      </c>
+      <c r="K27" s="1">
+        <v>20</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.5672817197698</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.5672817197698</v>
+      </c>
+      <c r="N27" s="1">
+        <v>2920</v>
+      </c>
+      <c r="O27" s="1">
+        <v>233009</v>
+      </c>
+      <c r="P27" s="1">
+        <v>136720</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>104289</v>
+      </c>
+      <c r="R27" s="1">
+        <v>52000</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>104289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="A28" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B28" s="1">
+        <v>39710</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="1">
+        <v>-308</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1">
+        <v>36</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.51286262172115</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.51286262172115</v>
+      </c>
+      <c r="N28" s="1">
+        <v>30000</v>
+      </c>
+      <c r="O28" s="1">
+        <v>421525</v>
+      </c>
+      <c r="P28" s="1">
+        <v>363197</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>344979</v>
+      </c>
+      <c r="R28" s="1">
+        <v>204340</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>344979</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
+      <c r="A29" s="1">
+        <v>46060</v>
+      </c>
+      <c r="B29" s="1">
+        <v>39716</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="1">
+        <v>-256</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>4</v>
+      </c>
+      <c r="K29" s="1">
+        <v>17</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.39146802843425</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.39146802843425</v>
+      </c>
+      <c r="N29" s="1">
+        <v>23848</v>
+      </c>
+      <c r="O29" s="1">
+        <v>777430</v>
+      </c>
+      <c r="P29" s="1">
+        <v>230743</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>358687</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>358687</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
+      <c r="A30" s="1">
+        <v>46061</v>
+      </c>
+      <c r="B30" s="1">
+        <v>39715</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1">
+        <v>495</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="1">
+      <c r="I30" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0.04273869561501</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0.04273869561501</v>
+      </c>
+      <c r="N30" s="1">
+        <v>7000</v>
+      </c>
+      <c r="O30" s="1">
+        <v>333426</v>
+      </c>
+      <c r="P30" s="1">
+        <v>12000</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>268776</v>
+      </c>
+      <c r="R30" s="1">
+        <v>28748</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>268776</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
+      <c r="A31" s="1">
+        <v>46063</v>
+      </c>
+      <c r="B31" s="1">
+        <v>39718</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="E31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1">
+        <v>478</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J31" s="1">
+        <v>11</v>
+      </c>
+      <c r="K31" s="1">
+        <v>2</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.058830104541096</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0.058830104541096</v>
+      </c>
+      <c r="N31" s="1">
+        <v>3953</v>
+      </c>
+      <c r="O31" s="1">
+        <v>296441</v>
+      </c>
+      <c r="P31" s="1">
+        <v>30000</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>479943</v>
+      </c>
+      <c r="R31" s="1">
+        <v>247508</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <v>479943</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
+      <c r="A32" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B32" s="1">
+        <v>27359</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="1">
+        <v>-41</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
         <v>35</v>
       </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0</v>
-      </c>
-      <c r="O25" s="1">
-        <v>52600</v>
-      </c>
-      <c r="P25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>46700</v>
-      </c>
-      <c r="R25" s="1">
-        <v>0</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0</v>
-      </c>
-      <c r="T25" s="1">
-        <v>0</v>
+      <c r="K32" s="1">
+        <v>32</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0.30647747300243</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.30647747300243</v>
+      </c>
+      <c r="N32" s="1">
+        <v>30000</v>
+      </c>
+      <c r="O32" s="1">
+        <v>864289</v>
+      </c>
+      <c r="P32" s="1">
+        <v>520122</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>1176975</v>
+      </c>
+      <c r="R32" s="1">
+        <v>383578</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <v>1176975</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29">
+      <c r="A33" s="1">
+        <v>46067</v>
+      </c>
+      <c r="B33" s="1">
+        <v>39720</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1">
+        <v>536</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J33" s="1">
+        <v>3</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0.11514971677599</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0.11514971677599</v>
+      </c>
+      <c r="N33" s="1">
+        <v>13942</v>
+      </c>
+      <c r="O33" s="1">
+        <v>221593</v>
+      </c>
+      <c r="P33" s="1">
+        <v>26000</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>199793</v>
+      </c>
+      <c r="R33" s="1">
+        <v>40720</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>199793</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29">
+      <c r="A34" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B34" s="1">
+        <v>39724</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1">
+        <v>547</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>3000</v>
+      </c>
+      <c r="O34" s="1">
+        <v>545036</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>638326</v>
+      </c>
+      <c r="R34" s="1">
+        <v>68760</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>638326</v>
       </c>
     </row>
   </sheetData>

--- a/Orders.xlsx
+++ b/Orders.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>ID заявки</t>
   </si>
@@ -101,7 +101,7 @@
     <t>new</t>
   </si>
   <si>
-    <t>2023-06-13 00:51:58</t>
+    <t>2023-06-15 04:48:02</t>
   </si>
   <si>
     <t>Отказ</t>
@@ -113,7 +113,19 @@
     <t>Проверка не пройдена</t>
   </si>
   <si>
-    <t>2023-06-13 01:06:24</t>
+    <t>2023-06-15 06:22:26</t>
+  </si>
+  <si>
+    <t>2023-06-15 07:16:31</t>
+  </si>
+  <si>
+    <t>2023-06-15 08:12:19</t>
+  </si>
+  <si>
+    <t>2023-06-15 08:16:30</t>
+  </si>
+  <si>
+    <t>2023-06-15 09:27:02</t>
   </si>
   <si>
     <t>Займ выдан</t>
@@ -122,109 +134,88 @@
     <t>Проверка пройдена</t>
   </si>
   <si>
-    <t>2023-06-13 02:18:12</t>
-  </si>
-  <si>
-    <t>2023-06-13 03:35:52</t>
-  </si>
-  <si>
-    <t>2023-06-13 04:54:40</t>
-  </si>
-  <si>
-    <t>2023-06-13 05:30:06</t>
-  </si>
-  <si>
-    <t>2023-06-13 05:30:46</t>
-  </si>
-  <si>
-    <t>Причина отказа: наличие задолженности на сайте судебных приставов.</t>
-  </si>
-  <si>
-    <t>2023-06-13 05:59:51</t>
-  </si>
-  <si>
-    <t>2023-06-13 07:01:47</t>
-  </si>
-  <si>
-    <t>2023-06-13 07:10:35</t>
-  </si>
-  <si>
-    <t>2023-06-13 08:17:47</t>
-  </si>
-  <si>
-    <t>2023-06-13 10:22:34</t>
+    <t>2023-06-15 09:37:30</t>
+  </si>
+  <si>
+    <t>2023-06-15 09:51:43</t>
+  </si>
+  <si>
+    <t>2023-06-15 10:32:15</t>
+  </si>
+  <si>
+    <t>2023-06-15 10:50:00</t>
+  </si>
+  <si>
+    <t>2023-06-15 10:53:26</t>
+  </si>
+  <si>
+    <t>2023-06-15 11:43:27</t>
+  </si>
+  <si>
+    <t>2023-06-15 11:56:27</t>
+  </si>
+  <si>
+    <t>2023-06-15 12:40:31</t>
+  </si>
+  <si>
+    <t>2023-06-15 12:53:35</t>
+  </si>
+  <si>
+    <t>2023-06-15 13:00:00</t>
+  </si>
+  <si>
+    <t>2023-06-15 13:02:09</t>
+  </si>
+  <si>
+    <t>Одобрена</t>
+  </si>
+  <si>
+    <t>2023-06-15 13:05:22</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>2023-06-13 10:34:23</t>
-  </si>
-  <si>
-    <t>2023-06-13 10:34:52</t>
+    <t>2023-06-15 13:19:36</t>
+  </si>
+  <si>
+    <t>2023-06-15 13:28:24</t>
+  </si>
+  <si>
+    <t>2023-06-15 13:37:32</t>
   </si>
   <si>
     <t>Причина отказа: негативные факторы в кредитной истории.</t>
   </si>
   <si>
-    <t>2023-06-13 11:05:00</t>
-  </si>
-  <si>
-    <t>Одобрена</t>
-  </si>
-  <si>
-    <t>2023-06-13 11:27:01</t>
-  </si>
-  <si>
-    <t>2023-06-13 11:40:46</t>
-  </si>
-  <si>
-    <t>2023-06-13 11:47:43</t>
-  </si>
-  <si>
-    <t>2023-06-13 11:56:21</t>
-  </si>
-  <si>
-    <t>2023-06-13 12:26:21</t>
-  </si>
-  <si>
-    <t>2023-06-13 12:32:02</t>
-  </si>
-  <si>
-    <t>2023-06-13 13:01:28</t>
-  </si>
-  <si>
-    <t>2023-06-13 13:29:58</t>
-  </si>
-  <si>
-    <t>2023-06-13 13:38:45</t>
-  </si>
-  <si>
-    <t>2023-06-13 13:54:21</t>
-  </si>
-  <si>
-    <t>2023-06-13 13:59:51</t>
-  </si>
-  <si>
-    <t>2023-06-13 14:09:46</t>
-  </si>
-  <si>
-    <t>2023-06-13 14:10:37</t>
-  </si>
-  <si>
-    <t>2023-06-13 14:10:56</t>
-  </si>
-  <si>
-    <t>2023-06-13 14:26:10</t>
-  </si>
-  <si>
-    <t>2023-06-13 14:45:02</t>
-  </si>
-  <si>
-    <t>2023-06-13 15:01:58</t>
-  </si>
-  <si>
-    <t>2023-06-13 15:26:22</t>
+    <t>2023-06-15 13:58:44</t>
+  </si>
+  <si>
+    <t>2023-06-15 14:08:39</t>
+  </si>
+  <si>
+    <t>2023-06-15 14:31:04</t>
+  </si>
+  <si>
+    <t>2023-06-15 14:42:50</t>
+  </si>
+  <si>
+    <t>2023-06-15 14:54:05</t>
+  </si>
+  <si>
+    <t>2023-06-15 14:56:40</t>
+  </si>
+  <si>
+    <t>2023-06-15 15:13:23</t>
+  </si>
+  <si>
+    <t>2023-06-15 15:31:01</t>
+  </si>
+  <si>
+    <t>2023-06-15 15:45:21</t>
+  </si>
+  <si>
+    <t>2023-06-15 15:50:06</t>
   </si>
 </sst>
 </file>
@@ -563,7 +554,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AC34"/>
+  <dimension ref="A1:AC32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:AC1048576"/>
@@ -693,10 +684,10 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="1">
-        <v>45997</v>
+        <v>46243</v>
       </c>
       <c r="B2" s="1">
-        <v>39643</v>
+        <v>39905</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>27</v>
@@ -711,7 +702,7 @@
         <v>30</v>
       </c>
       <c r="G2" s="1">
-        <v>-604</v>
+        <v>260</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>31</v>
@@ -720,45 +711,45 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="L2" s="1">
-        <v>0.77247876652566</v>
+        <v>0.094487799710442</v>
       </c>
       <c r="M2" s="1">
-        <v>0.77247876652566</v>
+        <v>0.094487799710442</v>
       </c>
       <c r="N2" s="1">
-        <v>13000</v>
+        <v>9900</v>
       </c>
       <c r="O2" s="1">
-        <v>131135</v>
+        <v>137095</v>
       </c>
       <c r="P2" s="1">
-        <v>139882</v>
+        <v>13379</v>
       </c>
       <c r="Q2" s="1">
-        <v>41200</v>
+        <v>128216</v>
       </c>
       <c r="R2" s="1">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="S2" s="1">
         <v>0</v>
       </c>
       <c r="T2" s="1">
-        <v>41200</v>
+        <v>128216</v>
       </c>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="1">
-        <v>45998</v>
+        <v>46247</v>
       </c>
       <c r="B3" s="1">
-        <v>39645</v>
+        <v>39910</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>27</v>
@@ -767,62 +758,66 @@
         <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G3" s="1">
-        <v>691</v>
+        <v>69</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I3" s="1">
-        <v>3000</v>
-      </c>
-      <c r="J3" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>6</v>
+      </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L3" s="1">
-        <v>0.0078787312715305</v>
+        <v>0.099954266652319</v>
       </c>
       <c r="M3" s="1">
-        <v>0.0078787312715305</v>
+        <v>0.099954266652319</v>
       </c>
       <c r="N3" s="1">
-        <v>53470</v>
+        <v>8000</v>
       </c>
       <c r="O3" s="1">
-        <v>1015055</v>
+        <v>637506</v>
       </c>
       <c r="P3" s="1">
-        <v>18642</v>
+        <v>66879</v>
       </c>
       <c r="Q3" s="1">
-        <v>2347475</v>
+        <v>602217</v>
       </c>
       <c r="R3" s="1">
-        <v>254566</v>
+        <v>24050</v>
       </c>
       <c r="S3" s="1">
         <v>0</v>
       </c>
       <c r="T3" s="1">
-        <v>2347475</v>
+        <v>602217</v>
       </c>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="1">
-        <v>45999</v>
+        <v>46251</v>
       </c>
       <c r="B4" s="1">
-        <v>39648</v>
+        <v>39913</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>29</v>
@@ -831,7 +826,7 @@
         <v>30</v>
       </c>
       <c r="G4" s="1">
-        <v>-75</v>
+        <v>-557</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>31</v>
@@ -840,51 +835,51 @@
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>0.35238463976089</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>0.35238463976089</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>11900</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>603323</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>285785</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>525218</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>368789</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1">
         <v>0</v>
       </c>
       <c r="T4" s="1">
-        <v>525218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="1">
-        <v>46002</v>
+        <v>46253</v>
       </c>
       <c r="B5" s="1">
-        <v>39652</v>
+        <v>39914</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>29</v>
@@ -893,7 +888,7 @@
         <v>30</v>
       </c>
       <c r="G5" s="1">
-        <v>-159</v>
+        <v>-389</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>31</v>
@@ -901,52 +896,50 @@
       <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
+      <c r="J5" s="1"/>
       <c r="K5" s="1">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="L5" s="1">
-        <v>0.38980022738347</v>
+        <v>0.52738308642494</v>
       </c>
       <c r="M5" s="1">
-        <v>0.38980022738347</v>
+        <v>0.52738308642494</v>
       </c>
       <c r="N5" s="1">
-        <v>18500</v>
+        <v>7000</v>
       </c>
       <c r="O5" s="1">
-        <v>50908</v>
+        <v>502268</v>
       </c>
       <c r="P5" s="1">
-        <v>24000</v>
+        <v>891722</v>
       </c>
       <c r="Q5" s="1">
-        <v>37570</v>
+        <v>799121</v>
       </c>
       <c r="R5" s="1">
-        <v>2000</v>
+        <v>611465</v>
       </c>
       <c r="S5" s="1">
         <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>37570</v>
+        <v>799121</v>
       </c>
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="1">
-        <v>46004</v>
+        <v>46254</v>
       </c>
       <c r="B6" s="1">
-        <v>39656</v>
+        <v>39916</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>29</v>
@@ -955,7 +948,7 @@
         <v>30</v>
       </c>
       <c r="G6" s="1">
-        <v>-670</v>
+        <v>159</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>31</v>
@@ -963,106 +956,104 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="1">
-        <v>5</v>
-      </c>
+      <c r="J6" s="1"/>
       <c r="K6" s="1">
         <v>20</v>
       </c>
       <c r="L6" s="1">
-        <v>0.55529122084966</v>
+        <v>0.16298517559779</v>
       </c>
       <c r="M6" s="1">
-        <v>0.55529122084966</v>
+        <v>0.16298517559779</v>
       </c>
       <c r="N6" s="1">
-        <v>4490</v>
+        <v>23000</v>
       </c>
       <c r="O6" s="1">
-        <v>27330</v>
+        <v>982608</v>
       </c>
       <c r="P6" s="1">
-        <v>186730</v>
+        <v>185992</v>
       </c>
       <c r="Q6" s="1">
-        <v>149544</v>
+        <v>955167</v>
       </c>
       <c r="R6" s="1">
-        <v>59614</v>
+        <v>106736</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
       </c>
       <c r="T6" s="1">
-        <v>149544</v>
+        <v>955167</v>
       </c>
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="1">
-        <v>46006</v>
+        <v>46255</v>
       </c>
       <c r="B7" s="1">
-        <v>39660</v>
+        <v>39917</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>721</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="1">
-        <v>-189</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1"/>
+        <v>3000</v>
+      </c>
+      <c r="J7" s="1">
+        <v>22</v>
+      </c>
       <c r="K7" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>0.41042633034109</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>0.41042633034109</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>5000</v>
+        <v>30000</v>
       </c>
       <c r="O7" s="1">
-        <v>306325</v>
+        <v>860206</v>
       </c>
       <c r="P7" s="1">
-        <v>161213</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>231581</v>
+        <v>1611194</v>
       </c>
       <c r="R7" s="1">
-        <v>88640</v>
+        <v>201242</v>
       </c>
       <c r="S7" s="1">
         <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>231581</v>
+        <v>1611194</v>
       </c>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="1">
-        <v>46007</v>
+        <v>46256</v>
       </c>
       <c r="B8" s="1">
-        <v>39659</v>
+        <v>39919</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
@@ -1071,126 +1062,126 @@
         <v>39</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1">
-        <v>-1138</v>
+        <v>595</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J8" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K8" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1">
-        <v>0.77692442518205</v>
+        <v>0.031181481941505</v>
       </c>
       <c r="M8" s="1">
-        <v>0.77692442518205</v>
+        <v>0.031181481941505</v>
       </c>
       <c r="N8" s="1">
-        <v>11000</v>
+        <v>9900</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>780035</v>
       </c>
       <c r="P8" s="1">
-        <v>48759</v>
+        <v>60000</v>
       </c>
       <c r="Q8" s="1">
-        <v>14000</v>
+        <v>1864219</v>
       </c>
       <c r="R8" s="1">
-        <v>21259</v>
+        <v>326633</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>14000</v>
+        <v>1864219</v>
       </c>
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="1">
-        <v>46009</v>
+        <v>46257</v>
       </c>
       <c r="B9" s="1">
-        <v>39664</v>
+        <v>39920</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G9" s="1">
-        <v>505</v>
+        <v>125</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I9" s="1">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K9" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L9" s="1">
-        <v>0.032092511747259</v>
+        <v>0.12845263800192</v>
       </c>
       <c r="M9" s="1">
-        <v>0.032092511747259</v>
+        <v>0.12845263800192</v>
       </c>
       <c r="N9" s="1">
-        <v>6750</v>
+        <v>15000</v>
       </c>
       <c r="O9" s="1">
-        <v>239331</v>
+        <v>487091</v>
       </c>
       <c r="P9" s="1">
-        <v>14445</v>
+        <v>89890</v>
       </c>
       <c r="Q9" s="1">
-        <v>435660</v>
+        <v>609901</v>
       </c>
       <c r="R9" s="1">
-        <v>155870</v>
+        <v>228346</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>435660</v>
+        <v>609901</v>
       </c>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="1">
-        <v>46011</v>
+        <v>46260</v>
       </c>
       <c r="B10" s="1">
-        <v>39667</v>
+        <v>34940</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>29</v>
@@ -1199,7 +1190,7 @@
         <v>30</v>
       </c>
       <c r="G10" s="1">
-        <v>-782</v>
+        <v>117</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>31</v>
@@ -1208,111 +1199,111 @@
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K10" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L10" s="1">
-        <v>0.66942868161534</v>
+        <v>0.073980634628454</v>
       </c>
       <c r="M10" s="1">
-        <v>0.66942868161534</v>
+        <v>0.073980634628454</v>
       </c>
       <c r="N10" s="1">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O10" s="1">
-        <v>17279</v>
+        <v>692746</v>
       </c>
       <c r="P10" s="1">
-        <v>60754</v>
+        <v>59000</v>
       </c>
       <c r="Q10" s="1">
-        <v>30001</v>
+        <v>738506</v>
       </c>
       <c r="R10" s="1">
-        <v>34251</v>
+        <v>126078</v>
       </c>
       <c r="S10" s="1">
         <v>0</v>
       </c>
       <c r="T10" s="1">
-        <v>30001</v>
+        <v>738506</v>
       </c>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="1">
-        <v>46013</v>
+        <v>46261</v>
       </c>
       <c r="B11" s="1">
-        <v>39669</v>
+        <v>39923</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
-        <v>691</v>
+        <v>517</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I11" s="1">
         <v>3000</v>
       </c>
       <c r="J11" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" s="1">
-        <v>0.022860748323736</v>
+        <v>0.026998688990823</v>
       </c>
       <c r="M11" s="1">
-        <v>0.022860748323736</v>
+        <v>0.026998688990823</v>
       </c>
       <c r="N11" s="1">
-        <v>21200</v>
+        <v>6000</v>
       </c>
       <c r="O11" s="1">
-        <v>309457</v>
+        <v>1101415</v>
       </c>
       <c r="P11" s="1">
-        <v>10000</v>
+        <v>35998</v>
       </c>
       <c r="Q11" s="1">
-        <v>427431</v>
+        <v>1297326</v>
       </c>
       <c r="R11" s="1">
-        <v>104722</v>
+        <v>357049</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
       </c>
       <c r="T11" s="1">
-        <v>427431</v>
+        <v>1297326</v>
       </c>
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="1">
-        <v>46015</v>
+        <v>46262</v>
       </c>
       <c r="B12" s="1">
-        <v>39671</v>
+        <v>39924</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>29</v>
@@ -1321,7 +1312,7 @@
         <v>30</v>
       </c>
       <c r="G12" s="1">
-        <v>-728</v>
+        <v>234</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>31</v>
@@ -1330,28 +1321,28 @@
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K12" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="L12" s="1">
-        <v>0.74190493787242</v>
+        <v>0.025874961834431</v>
       </c>
       <c r="M12" s="1">
-        <v>0.74190493787242</v>
+        <v>0.025874961834431</v>
       </c>
       <c r="N12" s="1">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="O12" s="1">
-        <v>20000</v>
+        <v>386474</v>
       </c>
       <c r="P12" s="1">
-        <v>128492</v>
+        <v>10000</v>
       </c>
       <c r="Q12" s="1">
-        <v>44700</v>
+        <v>376474</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
@@ -1360,21 +1351,21 @@
         <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>44700</v>
+        <v>376474</v>
       </c>
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="1">
-        <v>46026</v>
+        <v>46266</v>
       </c>
       <c r="B13" s="1">
-        <v>38982</v>
+        <v>38688</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>29</v>
@@ -1383,7 +1374,7 @@
         <v>30</v>
       </c>
       <c r="G13" s="1">
-        <v>171</v>
+        <v>-424</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>31</v>
@@ -1391,355 +1382,356 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
+      <c r="J13" s="1"/>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L13" s="1">
-        <v>0.077235772357724</v>
+        <v>0.3321514447569</v>
       </c>
       <c r="M13" s="1">
-        <v>0.077235772357724</v>
+        <v>0.3321514447569</v>
       </c>
       <c r="N13" s="1">
-        <v>4474</v>
+        <v>5950</v>
       </c>
       <c r="O13" s="1">
-        <v>45400</v>
+        <v>79648</v>
       </c>
       <c r="P13" s="1">
-        <v>3800</v>
+        <v>32600</v>
       </c>
       <c r="Q13" s="1">
-        <v>45400</v>
+        <v>65548</v>
       </c>
       <c r="R13" s="1">
-        <v>10674</v>
+        <v>6000</v>
       </c>
       <c r="S13" s="1">
         <v>0</v>
       </c>
       <c r="T13" s="1">
-        <v>45400</v>
+        <v>65548</v>
       </c>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="1">
-        <v>46028</v>
+        <v>46267</v>
       </c>
       <c r="B14" s="1">
-        <v>19899</v>
+        <v>39856</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G14" s="1">
-        <v>262</v>
+        <v>-423</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I14" s="1">
-        <v>3000</v>
-      </c>
-      <c r="J14" s="1">
-        <v>18</v>
-      </c>
-      <c r="U14" s="1">
-        <v>158</v>
-      </c>
-      <c r="V14" s="1">
-        <v>1</v>
-      </c>
-      <c r="W14" s="1">
-        <v>5100</v>
-      </c>
-      <c r="X14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>112996</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>0.83366482238214</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>12</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>26.406047745358</v>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1">
+        <v>29</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.78429400506745</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.78429400506745</v>
+      </c>
+      <c r="N14" s="1">
+        <v>12400</v>
+      </c>
+      <c r="O14" s="1">
+        <v>69300</v>
+      </c>
+      <c r="P14" s="1">
+        <v>506101</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>139194</v>
+      </c>
+      <c r="R14" s="1">
+        <v>102178</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>139194</v>
       </c>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="1">
-        <v>46029</v>
+        <v>46273</v>
       </c>
       <c r="B15" s="1">
-        <v>39682</v>
+        <v>39930</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G15" s="1">
-        <v>527</v>
+        <v>-45</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I15" s="1">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>1</v>
       </c>
       <c r="L15" s="1">
-        <v>0.10082666406962</v>
+        <v>0.16683906703594</v>
       </c>
       <c r="M15" s="1">
-        <v>0.10082666406962</v>
+        <v>0.16683906703594</v>
       </c>
       <c r="N15" s="1">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="O15" s="1">
-        <v>809785</v>
+        <v>29969</v>
       </c>
       <c r="P15" s="1">
-        <v>88000</v>
+        <v>5000</v>
       </c>
       <c r="Q15" s="1">
-        <v>784785</v>
+        <v>24969</v>
       </c>
       <c r="R15" s="1">
-        <v>15420</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1">
         <v>0</v>
       </c>
       <c r="T15" s="1">
-        <v>784785</v>
+        <v>24969</v>
       </c>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="1">
-        <v>46032</v>
+        <v>46274</v>
       </c>
       <c r="B16" s="1">
-        <v>39686</v>
+        <v>39934</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G16" s="1">
-        <v>352</v>
+        <v>-386</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I16" s="1">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1">
         <v>3</v>
       </c>
       <c r="K16" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>0.18622289187222</v>
+        <v>0</v>
       </c>
       <c r="M16" s="1">
-        <v>0.18622289187222</v>
+        <v>0</v>
       </c>
       <c r="N16" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="O16" s="1">
-        <v>137000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>44000</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>192276</v>
+        <v>27000</v>
       </c>
       <c r="R16" s="1">
-        <v>78000</v>
+        <v>4000</v>
       </c>
       <c r="S16" s="1">
         <v>0</v>
       </c>
       <c r="T16" s="1">
-        <v>192276</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="17" spans="1:29">
       <c r="A17" s="1">
-        <v>46033</v>
+        <v>46276</v>
       </c>
       <c r="B17" s="1">
-        <v>39688</v>
+        <v>39898</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G17" s="1">
-        <v>579</v>
+        <v>-216</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I17" s="1">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K17" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L17" s="1">
-        <v>0.023952138622109</v>
+        <v>0.16783784816901</v>
       </c>
       <c r="M17" s="1">
-        <v>0.023952138622109</v>
+        <v>0.16783784816901</v>
       </c>
       <c r="N17" s="1">
-        <v>10716</v>
+        <v>4000</v>
       </c>
       <c r="O17" s="1">
-        <v>535741</v>
+        <v>606328</v>
       </c>
       <c r="P17" s="1">
-        <v>13400</v>
+        <v>52689</v>
       </c>
       <c r="Q17" s="1">
-        <v>546049</v>
+        <v>261239</v>
       </c>
       <c r="R17" s="1">
-        <v>87960</v>
+        <v>0</v>
       </c>
       <c r="S17" s="1">
         <v>0</v>
       </c>
       <c r="T17" s="1">
-        <v>546049</v>
+        <v>261239</v>
       </c>
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="1">
-        <v>46036</v>
+        <v>46277</v>
       </c>
       <c r="B18" s="1">
-        <v>39691</v>
+        <v>39936</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1">
-        <v>-163</v>
+        <v>329</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L18" s="1">
-        <v>0.32276816311006</v>
+        <v>0.078442459501328</v>
       </c>
       <c r="M18" s="1">
-        <v>0.32276816311006</v>
+        <v>0.078442459501328</v>
       </c>
       <c r="N18" s="1">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="O18" s="1">
-        <v>228853</v>
+        <v>1778717</v>
       </c>
       <c r="P18" s="1">
-        <v>89950</v>
+        <v>67700</v>
       </c>
       <c r="Q18" s="1">
-        <v>188733</v>
+        <v>795353</v>
       </c>
       <c r="R18" s="1">
-        <v>23780</v>
+        <v>0</v>
       </c>
       <c r="S18" s="1">
         <v>0</v>
       </c>
       <c r="T18" s="1">
-        <v>188733</v>
+        <v>795353</v>
       </c>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="1">
-        <v>46037</v>
+        <v>46278</v>
       </c>
       <c r="B19" s="1">
-        <v>39692</v>
+        <v>39933</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>29</v>
@@ -1748,7 +1740,7 @@
         <v>30</v>
       </c>
       <c r="G19" s="1">
-        <v>51</v>
+        <v>-130</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>31</v>
@@ -1757,355 +1749,352 @@
         <v>0</v>
       </c>
       <c r="J19" s="1">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K19" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L19" s="1">
-        <v>0.15680435153702</v>
+        <v>0.35545123231824</v>
       </c>
       <c r="M19" s="1">
-        <v>0.15680435153702</v>
+        <v>0.35545123231824</v>
       </c>
       <c r="N19" s="1">
-        <v>9999</v>
+        <v>5000</v>
       </c>
       <c r="O19" s="1">
-        <v>405380</v>
+        <v>55945</v>
       </c>
       <c r="P19" s="1">
-        <v>135950</v>
+        <v>28772</v>
       </c>
       <c r="Q19" s="1">
-        <v>731054</v>
+        <v>52173</v>
       </c>
       <c r="R19" s="1">
-        <v>296304</v>
+        <v>6000</v>
       </c>
       <c r="S19" s="1">
         <v>0</v>
       </c>
       <c r="T19" s="1">
-        <v>731054</v>
+        <v>52173</v>
       </c>
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="1">
-        <v>46039</v>
+        <v>46280</v>
       </c>
       <c r="B20" s="1">
-        <v>39694</v>
+        <v>18369</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1">
-        <v>346</v>
+        <v>412</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I20" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1">
-        <v>3000</v>
-      </c>
-      <c r="O20" s="1">
-        <v>235450</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>235450</v>
-      </c>
-      <c r="R20" s="1">
-        <v>0</v>
-      </c>
-      <c r="S20" s="1">
-        <v>0</v>
-      </c>
-      <c r="T20" s="1">
-        <v>235450</v>
+        <v>22</v>
+      </c>
+      <c r="U20" s="1">
+        <v>19523</v>
+      </c>
+      <c r="V20" s="1">
+        <v>2</v>
+      </c>
+      <c r="W20" s="1">
+        <v>1886.5</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0.29689158337596</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>18.79175</v>
       </c>
     </row>
     <row r="21" spans="1:29">
       <c r="A21" s="1">
-        <v>46040</v>
+        <v>46282</v>
       </c>
       <c r="B21" s="1">
-        <v>39696</v>
+        <v>39943</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1">
-        <v>343</v>
+        <v>603</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I21" s="1">
         <v>3000</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1">
-        <v>0.023746260666497</v>
+        <v>0.044761688768994</v>
       </c>
       <c r="M21" s="1">
-        <v>0.023746260666497</v>
+        <v>0.044761688768994</v>
       </c>
       <c r="N21" s="1">
-        <v>3000</v>
+        <v>16628</v>
       </c>
       <c r="O21" s="1">
-        <v>721691</v>
+        <v>354558</v>
       </c>
       <c r="P21" s="1">
-        <v>16900</v>
+        <v>15000</v>
       </c>
       <c r="Q21" s="1">
-        <v>694791</v>
+        <v>320108</v>
       </c>
       <c r="R21" s="1">
-        <v>9500</v>
+        <v>52947</v>
       </c>
       <c r="S21" s="1">
         <v>0</v>
       </c>
       <c r="T21" s="1">
-        <v>694791</v>
+        <v>320108</v>
       </c>
     </row>
     <row r="22" spans="1:29">
       <c r="A22" s="1">
-        <v>46041</v>
+        <v>46283</v>
       </c>
       <c r="B22" s="1">
-        <v>39697</v>
+        <v>39942</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="G22" s="1">
-        <v>-133</v>
+        <v>417</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J22" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L22" s="1">
-        <v>0.20527010381841</v>
+        <v>0.083310191613441</v>
       </c>
       <c r="M22" s="1">
-        <v>0.20527010381841</v>
+        <v>0.083310191613441</v>
       </c>
       <c r="N22" s="1">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O22" s="1">
-        <v>137346</v>
+        <v>190000</v>
       </c>
       <c r="P22" s="1">
-        <v>46662</v>
+        <v>15000</v>
       </c>
       <c r="Q22" s="1">
-        <v>180658</v>
+        <v>165050</v>
       </c>
       <c r="R22" s="1">
-        <v>29000</v>
+        <v>20450</v>
       </c>
       <c r="S22" s="1">
         <v>0</v>
       </c>
       <c r="T22" s="1">
-        <v>180658</v>
+        <v>165050</v>
       </c>
     </row>
     <row r="23" spans="1:29">
       <c r="A23" s="1">
-        <v>46046</v>
+        <v>46284</v>
       </c>
       <c r="B23" s="1">
-        <v>39702</v>
+        <v>39944</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="G23" s="1">
-        <v>-604</v>
+        <v>559</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1"/>
+        <v>3000</v>
+      </c>
+      <c r="J23" s="1">
+        <v>6</v>
+      </c>
       <c r="K23" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1">
-        <v>0.77025462473908</v>
+        <v>0</v>
       </c>
       <c r="M23" s="1">
-        <v>0.77025462473908</v>
+        <v>0</v>
       </c>
       <c r="N23" s="1">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O23" s="1">
-        <v>128281</v>
+        <v>241043</v>
       </c>
       <c r="P23" s="1">
-        <v>91145</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="1">
-        <v>27186</v>
+        <v>330767</v>
       </c>
       <c r="R23" s="1">
-        <v>18478</v>
+        <v>49199</v>
       </c>
       <c r="S23" s="1">
         <v>0</v>
       </c>
       <c r="T23" s="1">
-        <v>27186</v>
+        <v>330767</v>
       </c>
     </row>
     <row r="24" spans="1:29">
       <c r="A24" s="1">
-        <v>46048</v>
+        <v>46285</v>
       </c>
       <c r="B24" s="1">
-        <v>39705</v>
+        <v>35861</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="1">
-        <v>117</v>
+        <v>613</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K24" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L24" s="1">
-        <v>0.059731724497387</v>
+        <v>0</v>
       </c>
       <c r="M24" s="1">
-        <v>0.059731724497387</v>
+        <v>0</v>
       </c>
       <c r="N24" s="1">
-        <v>9990</v>
+        <v>6000</v>
       </c>
       <c r="O24" s="1">
-        <v>1123083</v>
+        <v>257845</v>
       </c>
       <c r="P24" s="1">
-        <v>90650</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="1">
-        <v>1426969</v>
+        <v>670057</v>
       </c>
       <c r="R24" s="1">
-        <v>130765</v>
+        <v>261492</v>
       </c>
       <c r="S24" s="1">
         <v>0</v>
       </c>
       <c r="T24" s="1">
-        <v>1426969</v>
+        <v>670057</v>
       </c>
     </row>
     <row r="25" spans="1:29">
       <c r="A25" s="1">
-        <v>46052</v>
+        <v>46286</v>
       </c>
       <c r="B25" s="1">
-        <v>39709</v>
+        <v>39948</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>29</v>
@@ -2114,7 +2103,7 @@
         <v>30</v>
       </c>
       <c r="G25" s="1">
-        <v>-315</v>
+        <v>90</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>31</v>
@@ -2123,51 +2112,51 @@
         <v>0</v>
       </c>
       <c r="J25" s="1">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="K25" s="1">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="L25" s="1">
-        <v>0.65663109935536</v>
+        <v>0.053619166043237</v>
       </c>
       <c r="M25" s="1">
-        <v>0.65663109935536</v>
+        <v>0.053619166043237</v>
       </c>
       <c r="N25" s="1">
-        <v>14700</v>
+        <v>6000</v>
       </c>
       <c r="O25" s="1">
-        <v>1841636</v>
+        <v>220440</v>
       </c>
       <c r="P25" s="1">
-        <v>2370783</v>
+        <v>21000</v>
       </c>
       <c r="Q25" s="1">
-        <v>1239742</v>
+        <v>370651</v>
       </c>
       <c r="R25" s="1">
-        <v>1359482</v>
+        <v>198961</v>
       </c>
       <c r="S25" s="1">
         <v>0</v>
       </c>
       <c r="T25" s="1">
-        <v>1239742</v>
+        <v>370651</v>
       </c>
     </row>
     <row r="26" spans="1:29">
       <c r="A26" s="1">
-        <v>46054</v>
+        <v>46287</v>
       </c>
       <c r="B26" s="1">
-        <v>39713</v>
+        <v>35156</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>29</v>
@@ -2176,7 +2165,7 @@
         <v>30</v>
       </c>
       <c r="G26" s="1">
-        <v>-178</v>
+        <v>-75</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>31</v>
@@ -2184,112 +2173,112 @@
       <c r="I26" s="1">
         <v>0</v>
       </c>
-      <c r="J26" s="1"/>
+      <c r="J26" s="1">
+        <v>12</v>
+      </c>
       <c r="K26" s="1">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="L26" s="1">
-        <v>0.22481275604554</v>
+        <v>0.45725795006923</v>
       </c>
       <c r="M26" s="1">
-        <v>0.22481275604554</v>
+        <v>0.45725795006923</v>
       </c>
       <c r="N26" s="1">
-        <v>5430</v>
+        <v>15000</v>
       </c>
       <c r="O26" s="1">
-        <v>151355</v>
+        <v>496596</v>
       </c>
       <c r="P26" s="1">
-        <v>41212</v>
+        <v>476867</v>
       </c>
       <c r="Q26" s="1">
-        <v>142105</v>
+        <v>566017</v>
       </c>
       <c r="R26" s="1">
-        <v>14990</v>
+        <v>389712</v>
       </c>
       <c r="S26" s="1">
         <v>0</v>
       </c>
       <c r="T26" s="1">
-        <v>142105</v>
+        <v>566017</v>
       </c>
     </row>
     <row r="27" spans="1:29">
       <c r="A27" s="1">
-        <v>46057</v>
+        <v>46288</v>
       </c>
       <c r="B27" s="1">
-        <v>39708</v>
+        <v>39952</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F27" s="1"/>
       <c r="G27" s="1">
-        <v>-512</v>
+        <v>568</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I27" s="1">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J27" s="1">
         <v>6</v>
       </c>
       <c r="K27" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L27" s="1">
-        <v>0.5672817197698</v>
+        <v>0.017227715949419</v>
       </c>
       <c r="M27" s="1">
-        <v>0.5672817197698</v>
+        <v>0.017227715949419</v>
       </c>
       <c r="N27" s="1">
-        <v>2920</v>
+        <v>6500</v>
       </c>
       <c r="O27" s="1">
-        <v>233009</v>
+        <v>506314</v>
       </c>
       <c r="P27" s="1">
-        <v>136720</v>
+        <v>9000</v>
       </c>
       <c r="Q27" s="1">
-        <v>104289</v>
+        <v>513414</v>
       </c>
       <c r="R27" s="1">
-        <v>52000</v>
+        <v>111327</v>
       </c>
       <c r="S27" s="1">
         <v>0</v>
       </c>
       <c r="T27" s="1">
-        <v>104289</v>
+        <v>513414</v>
       </c>
     </row>
     <row r="28" spans="1:29">
       <c r="A28" s="1">
-        <v>46059</v>
+        <v>46290</v>
       </c>
       <c r="B28" s="1">
-        <v>39710</v>
+        <v>39954</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>29</v>
@@ -2298,7 +2287,7 @@
         <v>30</v>
       </c>
       <c r="G28" s="1">
-        <v>-308</v>
+        <v>234</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>31</v>
@@ -2306,230 +2295,236 @@
       <c r="I28" s="1">
         <v>0</v>
       </c>
-      <c r="J28" s="1"/>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
       <c r="K28" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="L28" s="1">
-        <v>0.51286262172115</v>
+        <v>0</v>
       </c>
       <c r="M28" s="1">
-        <v>0.51286262172115</v>
+        <v>0</v>
       </c>
       <c r="N28" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="O28" s="1">
-        <v>421525</v>
+        <v>146254</v>
       </c>
       <c r="P28" s="1">
-        <v>363197</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="1">
-        <v>344979</v>
+        <v>136254</v>
       </c>
       <c r="R28" s="1">
-        <v>204340</v>
+        <v>0</v>
       </c>
       <c r="S28" s="1">
         <v>0</v>
       </c>
       <c r="T28" s="1">
-        <v>344979</v>
+        <v>136254</v>
       </c>
     </row>
     <row r="29" spans="1:29">
       <c r="A29" s="1">
-        <v>46060</v>
+        <v>46293</v>
       </c>
       <c r="B29" s="1">
-        <v>39716</v>
+        <v>39957</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F29" s="1"/>
       <c r="G29" s="1">
-        <v>-256</v>
+        <v>613</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I29" s="1">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J29" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K29" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1">
-        <v>0.39146802843425</v>
+        <v>0</v>
       </c>
       <c r="M29" s="1">
-        <v>0.39146802843425</v>
+        <v>0</v>
       </c>
       <c r="N29" s="1">
-        <v>23848</v>
+        <v>8000</v>
       </c>
       <c r="O29" s="1">
-        <v>777430</v>
+        <v>3943981</v>
       </c>
       <c r="P29" s="1">
-        <v>230743</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="1">
-        <v>358687</v>
+        <v>4433490</v>
       </c>
       <c r="R29" s="1">
-        <v>0</v>
+        <v>85800</v>
       </c>
       <c r="S29" s="1">
         <v>0</v>
       </c>
       <c r="T29" s="1">
-        <v>358687</v>
+        <v>4433490</v>
       </c>
     </row>
     <row r="30" spans="1:29">
       <c r="A30" s="1">
-        <v>46061</v>
+        <v>46295</v>
       </c>
       <c r="B30" s="1">
-        <v>39715</v>
+        <v>39959</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G30" s="1">
-        <v>495</v>
+        <v>-500</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I30" s="1">
-        <v>3000</v>
-      </c>
-      <c r="J30" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
       <c r="K30" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L30" s="1">
-        <v>0.04273869561501</v>
+        <v>0.36144149468439</v>
       </c>
       <c r="M30" s="1">
-        <v>0.04273869561501</v>
+        <v>0.36144149468439</v>
       </c>
       <c r="N30" s="1">
-        <v>7000</v>
+        <v>2750</v>
       </c>
       <c r="O30" s="1">
-        <v>333426</v>
+        <v>97778</v>
       </c>
       <c r="P30" s="1">
-        <v>12000</v>
+        <v>53819</v>
       </c>
       <c r="Q30" s="1">
-        <v>268776</v>
+        <v>95082</v>
       </c>
       <c r="R30" s="1">
-        <v>28748</v>
+        <v>0</v>
       </c>
       <c r="S30" s="1">
         <v>0</v>
       </c>
       <c r="T30" s="1">
-        <v>268776</v>
+        <v>95082</v>
       </c>
     </row>
     <row r="31" spans="1:29">
       <c r="A31" s="1">
-        <v>46063</v>
+        <v>46296</v>
       </c>
       <c r="B31" s="1">
-        <v>39718</v>
+        <v>39960</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G31" s="1">
-        <v>478</v>
+        <v>-75</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I31" s="1">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J31" s="1">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="K31" s="1">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="L31" s="1">
-        <v>0.058830104541096</v>
+        <v>0.39410936616626</v>
       </c>
       <c r="M31" s="1">
-        <v>0.058830104541096</v>
+        <v>0.39410936616626</v>
       </c>
       <c r="N31" s="1">
-        <v>3953</v>
+        <v>15000</v>
       </c>
       <c r="O31" s="1">
-        <v>296441</v>
+        <v>589356</v>
       </c>
       <c r="P31" s="1">
-        <v>30000</v>
+        <v>593228</v>
       </c>
       <c r="Q31" s="1">
-        <v>479943</v>
+        <v>912009</v>
       </c>
       <c r="R31" s="1">
-        <v>247508</v>
+        <v>456305</v>
       </c>
       <c r="S31" s="1">
         <v>0</v>
       </c>
       <c r="T31" s="1">
-        <v>479943</v>
+        <v>912009</v>
       </c>
     </row>
     <row r="32" spans="1:29">
       <c r="A32" s="1">
-        <v>46065</v>
+        <v>46297</v>
       </c>
       <c r="B32" s="1">
-        <v>27359</v>
+        <v>39962</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>29</v>
@@ -2538,7 +2533,7 @@
         <v>30</v>
       </c>
       <c r="G32" s="1">
-        <v>-41</v>
+        <v>-308</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>31</v>
@@ -2547,155 +2542,37 @@
         <v>0</v>
       </c>
       <c r="J32" s="1">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="K32" s="1">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L32" s="1">
-        <v>0.30647747300243</v>
+        <v>0.51854961812608</v>
       </c>
       <c r="M32" s="1">
-        <v>0.30647747300243</v>
+        <v>0.51854961812608</v>
       </c>
       <c r="N32" s="1">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O32" s="1">
-        <v>864289</v>
+        <v>253148</v>
       </c>
       <c r="P32" s="1">
-        <v>520122</v>
+        <v>406965</v>
       </c>
       <c r="Q32" s="1">
-        <v>1176975</v>
+        <v>377849</v>
       </c>
       <c r="R32" s="1">
-        <v>383578</v>
+        <v>174826</v>
       </c>
       <c r="S32" s="1">
         <v>0</v>
       </c>
       <c r="T32" s="1">
-        <v>1176975</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29">
-      <c r="A33" s="1">
-        <v>46067</v>
-      </c>
-      <c r="B33" s="1">
-        <v>39720</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1">
-        <v>536</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I33" s="1">
-        <v>3000</v>
-      </c>
-      <c r="J33" s="1">
-        <v>3</v>
-      </c>
-      <c r="K33" s="1">
-        <v>1</v>
-      </c>
-      <c r="L33" s="1">
-        <v>0.11514971677599</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0.11514971677599</v>
-      </c>
-      <c r="N33" s="1">
-        <v>13942</v>
-      </c>
-      <c r="O33" s="1">
-        <v>221593</v>
-      </c>
-      <c r="P33" s="1">
-        <v>26000</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>199793</v>
-      </c>
-      <c r="R33" s="1">
-        <v>40720</v>
-      </c>
-      <c r="S33" s="1">
-        <v>0</v>
-      </c>
-      <c r="T33" s="1">
-        <v>199793</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29">
-      <c r="A34" s="1">
-        <v>46069</v>
-      </c>
-      <c r="B34" s="1">
-        <v>39724</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1">
-        <v>547</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34" s="1">
-        <v>3000</v>
-      </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1">
-        <v>0</v>
-      </c>
-      <c r="L34" s="1">
-        <v>0</v>
-      </c>
-      <c r="M34" s="1">
-        <v>0</v>
-      </c>
-      <c r="N34" s="1">
-        <v>3000</v>
-      </c>
-      <c r="O34" s="1">
-        <v>545036</v>
-      </c>
-      <c r="P34" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>638326</v>
-      </c>
-      <c r="R34" s="1">
-        <v>68760</v>
-      </c>
-      <c r="S34" s="1">
-        <v>0</v>
-      </c>
-      <c r="T34" s="1">
-        <v>638326</v>
+        <v>377849</v>
       </c>
     </row>
   </sheetData>

--- a/Orders.xlsx
+++ b/Orders.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>ID заявки</t>
   </si>
@@ -101,7 +101,7 @@
     <t>new</t>
   </si>
   <si>
-    <t>2023-06-15 04:48:02</t>
+    <t>2023-06-20 00:51:41</t>
   </si>
   <si>
     <t>Отказ</t>
@@ -113,109 +113,67 @@
     <t>Проверка не пройдена</t>
   </si>
   <si>
-    <t>2023-06-15 06:22:26</t>
-  </si>
-  <si>
-    <t>2023-06-15 07:16:31</t>
-  </si>
-  <si>
-    <t>2023-06-15 08:12:19</t>
-  </si>
-  <si>
-    <t>2023-06-15 08:16:30</t>
-  </si>
-  <si>
-    <t>2023-06-15 09:27:02</t>
+    <t>2023-06-20 02:29:57</t>
+  </si>
+  <si>
+    <t>2023-06-20 06:20:04</t>
+  </si>
+  <si>
+    <t>2023-06-20 06:51:01</t>
+  </si>
+  <si>
+    <t>2023-06-20 07:36:14</t>
+  </si>
+  <si>
+    <t>Одобрена</t>
+  </si>
+  <si>
+    <t>Проверка пройдена</t>
+  </si>
+  <si>
+    <t>2023-06-20 07:56:16</t>
+  </si>
+  <si>
+    <t>2023-06-20 08:58:22</t>
+  </si>
+  <si>
+    <t>2023-06-20 09:19:22</t>
   </si>
   <si>
     <t>Займ выдан</t>
   </si>
   <si>
-    <t>Проверка пройдена</t>
-  </si>
-  <si>
-    <t>2023-06-15 09:37:30</t>
-  </si>
-  <si>
-    <t>2023-06-15 09:51:43</t>
-  </si>
-  <si>
-    <t>2023-06-15 10:32:15</t>
-  </si>
-  <si>
-    <t>2023-06-15 10:50:00</t>
-  </si>
-  <si>
-    <t>2023-06-15 10:53:26</t>
-  </si>
-  <si>
-    <t>2023-06-15 11:43:27</t>
-  </si>
-  <si>
-    <t>2023-06-15 11:56:27</t>
-  </si>
-  <si>
-    <t>2023-06-15 12:40:31</t>
-  </si>
-  <si>
-    <t>2023-06-15 12:53:35</t>
-  </si>
-  <si>
-    <t>2023-06-15 13:00:00</t>
-  </si>
-  <si>
-    <t>2023-06-15 13:02:09</t>
-  </si>
-  <si>
-    <t>Одобрена</t>
-  </si>
-  <si>
-    <t>2023-06-15 13:05:22</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>2023-06-15 13:19:36</t>
-  </si>
-  <si>
-    <t>2023-06-15 13:28:24</t>
-  </si>
-  <si>
-    <t>2023-06-15 13:37:32</t>
-  </si>
-  <si>
-    <t>Причина отказа: негативные факторы в кредитной истории.</t>
-  </si>
-  <si>
-    <t>2023-06-15 13:58:44</t>
-  </si>
-  <si>
-    <t>2023-06-15 14:08:39</t>
-  </si>
-  <si>
-    <t>2023-06-15 14:31:04</t>
-  </si>
-  <si>
-    <t>2023-06-15 14:42:50</t>
-  </si>
-  <si>
-    <t>2023-06-15 14:54:05</t>
-  </si>
-  <si>
-    <t>2023-06-15 14:56:40</t>
-  </si>
-  <si>
-    <t>2023-06-15 15:13:23</t>
-  </si>
-  <si>
-    <t>2023-06-15 15:31:01</t>
-  </si>
-  <si>
-    <t>2023-06-15 15:45:21</t>
-  </si>
-  <si>
-    <t>2023-06-15 15:50:06</t>
+    <t>2023-06-20 09:31:04</t>
+  </si>
+  <si>
+    <t>2023-06-20 09:33:15</t>
+  </si>
+  <si>
+    <t>2023-06-20 09:46:19</t>
+  </si>
+  <si>
+    <t>2023-06-20 10:04:17</t>
+  </si>
+  <si>
+    <t>2023-06-20 10:09:58</t>
+  </si>
+  <si>
+    <t>2023-06-20 10:46:58</t>
+  </si>
+  <si>
+    <t>2023-06-20 10:47:57</t>
+  </si>
+  <si>
+    <t>2023-06-20 10:57:12</t>
+  </si>
+  <si>
+    <t>Причина отказа: наличие задолженности на сайте судебных приставов.</t>
+  </si>
+  <si>
+    <t>2023-06-20 10:57:50</t>
+  </si>
+  <si>
+    <t>Принята</t>
   </si>
 </sst>
 </file>
@@ -554,7 +512,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AC32"/>
+  <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:AC1048576"/>
@@ -684,10 +642,10 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="1">
-        <v>46243</v>
+        <v>46922</v>
       </c>
       <c r="B2" s="1">
-        <v>39905</v>
+        <v>40650</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>27</v>
@@ -702,7 +660,7 @@
         <v>30</v>
       </c>
       <c r="G2" s="1">
-        <v>260</v>
+        <v>-25</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>31</v>
@@ -710,46 +668,44 @@
       <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
+      <c r="J2" s="1"/>
       <c r="K2" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L2" s="1">
-        <v>0.094487799710442</v>
+        <v>0.12079468320323</v>
       </c>
       <c r="M2" s="1">
-        <v>0.094487799710442</v>
+        <v>0.12079468320323</v>
       </c>
       <c r="N2" s="1">
-        <v>9900</v>
+        <v>9990</v>
       </c>
       <c r="O2" s="1">
-        <v>137095</v>
+        <v>444039</v>
       </c>
       <c r="P2" s="1">
-        <v>13379</v>
+        <v>74956</v>
       </c>
       <c r="Q2" s="1">
-        <v>128216</v>
+        <v>545568</v>
       </c>
       <c r="R2" s="1">
-        <v>4500</v>
+        <v>11800</v>
       </c>
       <c r="S2" s="1">
         <v>0</v>
       </c>
       <c r="T2" s="1">
-        <v>128216</v>
+        <v>545568</v>
       </c>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="1">
-        <v>46247</v>
+        <v>46927</v>
       </c>
       <c r="B3" s="1">
-        <v>39910</v>
+        <v>34230</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>27</v>
@@ -764,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" s="1">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>31</v>
@@ -772,46 +728,44 @@
       <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="1">
-        <v>6</v>
-      </c>
+      <c r="J3" s="1"/>
       <c r="K3" s="1">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="L3" s="1">
-        <v>0.099954266652319</v>
+        <v>0.28709398167225</v>
       </c>
       <c r="M3" s="1">
-        <v>0.099954266652319</v>
+        <v>0.28709398167225</v>
       </c>
       <c r="N3" s="1">
-        <v>8000</v>
+        <v>15179</v>
       </c>
       <c r="O3" s="1">
-        <v>637506</v>
+        <v>741833</v>
       </c>
       <c r="P3" s="1">
-        <v>66879</v>
+        <v>241765</v>
       </c>
       <c r="Q3" s="1">
-        <v>602217</v>
+        <v>600346</v>
       </c>
       <c r="R3" s="1">
-        <v>24050</v>
+        <v>172358</v>
       </c>
       <c r="S3" s="1">
         <v>0</v>
       </c>
       <c r="T3" s="1">
-        <v>602217</v>
+        <v>600346</v>
       </c>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="1">
-        <v>46251</v>
+        <v>46934</v>
       </c>
       <c r="B4" s="1">
-        <v>39913</v>
+        <v>40665</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>27</v>
@@ -826,7 +780,7 @@
         <v>30</v>
       </c>
       <c r="G4" s="1">
-        <v>-557</v>
+        <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>31</v>
@@ -835,28 +789,28 @@
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>0.0665812507819</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
+        <v>0.0665812507819</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>1320300</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>92604</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>1298238</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -865,15 +819,15 @@
         <v>0</v>
       </c>
       <c r="T4" s="1">
-        <v>0</v>
+        <v>1298238</v>
       </c>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="1">
-        <v>46253</v>
+        <v>46936</v>
       </c>
       <c r="B5" s="1">
-        <v>39914</v>
+        <v>40668</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>27</v>
@@ -888,7 +842,7 @@
         <v>30</v>
       </c>
       <c r="G5" s="1">
-        <v>-389</v>
+        <v>125</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>31</v>
@@ -898,42 +852,42 @@
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="L5" s="1">
-        <v>0.52738308642494</v>
+        <v>0.14585476193903</v>
       </c>
       <c r="M5" s="1">
-        <v>0.52738308642494</v>
+        <v>0.14585476193903</v>
       </c>
       <c r="N5" s="1">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O5" s="1">
-        <v>502268</v>
+        <v>541586</v>
       </c>
       <c r="P5" s="1">
-        <v>891722</v>
+        <v>131735</v>
       </c>
       <c r="Q5" s="1">
-        <v>799121</v>
+        <v>771458</v>
       </c>
       <c r="R5" s="1">
-        <v>611465</v>
+        <v>249881</v>
       </c>
       <c r="S5" s="1">
         <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>799121</v>
+        <v>771458</v>
       </c>
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="1">
-        <v>46254</v>
+        <v>46939</v>
       </c>
       <c r="B6" s="1">
-        <v>39916</v>
+        <v>40662</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
@@ -942,118 +896,120 @@
         <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1">
-        <v>159</v>
+        <v>451</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1"/>
+        <v>3000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
       <c r="K6" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="L6" s="1">
-        <v>0.16298517559779</v>
+        <v>0.04934078417423</v>
       </c>
       <c r="M6" s="1">
-        <v>0.16298517559779</v>
+        <v>0.04934078417423</v>
       </c>
       <c r="N6" s="1">
-        <v>23000</v>
+        <v>4000</v>
       </c>
       <c r="O6" s="1">
-        <v>982608</v>
+        <v>487836</v>
       </c>
       <c r="P6" s="1">
-        <v>185992</v>
+        <v>25800</v>
       </c>
       <c r="Q6" s="1">
-        <v>955167</v>
+        <v>497094</v>
       </c>
       <c r="R6" s="1">
-        <v>106736</v>
+        <v>76317</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
       </c>
       <c r="T6" s="1">
-        <v>955167</v>
+        <v>497094</v>
       </c>
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="1">
-        <v>46255</v>
+        <v>46941</v>
       </c>
       <c r="B7" s="1">
-        <v>39917</v>
+        <v>34968</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G7" s="1">
-        <v>721</v>
+        <v>-628</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I7" s="1">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>0.51572622000929</v>
       </c>
       <c r="M7" s="1">
-        <v>0</v>
+        <v>0.51572622000929</v>
       </c>
       <c r="N7" s="1">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="O7" s="1">
-        <v>860206</v>
+        <v>222154</v>
       </c>
       <c r="P7" s="1">
-        <v>0</v>
+        <v>117665</v>
       </c>
       <c r="Q7" s="1">
-        <v>1611194</v>
+        <v>110489</v>
       </c>
       <c r="R7" s="1">
-        <v>201242</v>
+        <v>25445</v>
       </c>
       <c r="S7" s="1">
         <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>1611194</v>
+        <v>110489</v>
       </c>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="1">
-        <v>46256</v>
+        <v>46943</v>
       </c>
       <c r="B8" s="1">
-        <v>39919</v>
+        <v>40678</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
@@ -1062,58 +1018,60 @@
         <v>39</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G8" s="1">
-        <v>595</v>
+        <v>-1352</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I8" s="1">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L8" s="1">
-        <v>0.031181481941505</v>
+        <v>0.62086870518421</v>
       </c>
       <c r="M8" s="1">
-        <v>0.031181481941505</v>
+        <v>0.62086870518421</v>
       </c>
       <c r="N8" s="1">
-        <v>9900</v>
+        <v>8000</v>
       </c>
       <c r="O8" s="1">
-        <v>780035</v>
+        <v>8599</v>
       </c>
       <c r="P8" s="1">
-        <v>60000</v>
+        <v>22599</v>
       </c>
       <c r="Q8" s="1">
-        <v>1864219</v>
+        <v>13800</v>
       </c>
       <c r="R8" s="1">
-        <v>326633</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>1864219</v>
+        <v>13800</v>
       </c>
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="1">
-        <v>46257</v>
+        <v>46946</v>
       </c>
       <c r="B9" s="1">
-        <v>39920</v>
+        <v>40680</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -1122,66 +1080,64 @@
         <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1">
-        <v>125</v>
+        <v>524</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J9" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K9" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1">
-        <v>0.12845263800192</v>
+        <v>0.092648714174387</v>
       </c>
       <c r="M9" s="1">
-        <v>0.12845263800192</v>
+        <v>0.092648714174387</v>
       </c>
       <c r="N9" s="1">
-        <v>15000</v>
+        <v>11770</v>
       </c>
       <c r="O9" s="1">
-        <v>487091</v>
+        <v>115269</v>
       </c>
       <c r="P9" s="1">
-        <v>89890</v>
+        <v>11770</v>
       </c>
       <c r="Q9" s="1">
-        <v>609901</v>
+        <v>115269</v>
       </c>
       <c r="R9" s="1">
-        <v>228346</v>
+        <v>14100</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>609901</v>
+        <v>115269</v>
       </c>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="1">
-        <v>46260</v>
+        <v>46947</v>
       </c>
       <c r="B10" s="1">
-        <v>34940</v>
+        <v>40683</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>29</v>
@@ -1190,7 +1146,7 @@
         <v>30</v>
       </c>
       <c r="G10" s="1">
-        <v>117</v>
+        <v>-675</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>31</v>
@@ -1199,173 +1155,173 @@
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="K10" s="1">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="L10" s="1">
-        <v>0.073980634628454</v>
+        <v>0.73785008325839</v>
       </c>
       <c r="M10" s="1">
-        <v>0.073980634628454</v>
+        <v>0.73785008325839</v>
       </c>
       <c r="N10" s="1">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O10" s="1">
-        <v>692746</v>
+        <v>36750</v>
       </c>
       <c r="P10" s="1">
-        <v>59000</v>
+        <v>171483</v>
       </c>
       <c r="Q10" s="1">
-        <v>738506</v>
+        <v>60926</v>
       </c>
       <c r="R10" s="1">
-        <v>126078</v>
+        <v>47200</v>
       </c>
       <c r="S10" s="1">
         <v>0</v>
       </c>
       <c r="T10" s="1">
-        <v>738506</v>
+        <v>60926</v>
       </c>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="1">
-        <v>46261</v>
+        <v>46949</v>
       </c>
       <c r="B11" s="1">
-        <v>39923</v>
+        <v>40651</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G11" s="1">
-        <v>517</v>
+        <v>-812</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I11" s="1">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L11" s="1">
-        <v>0.026998688990823</v>
+        <v>0.52157276340562</v>
       </c>
       <c r="M11" s="1">
-        <v>0.026998688990823</v>
+        <v>0.52157276340562</v>
       </c>
       <c r="N11" s="1">
-        <v>6000</v>
+        <v>1720</v>
       </c>
       <c r="O11" s="1">
-        <v>1101415</v>
+        <v>129728</v>
       </c>
       <c r="P11" s="1">
-        <v>35998</v>
+        <v>59839</v>
       </c>
       <c r="Q11" s="1">
-        <v>1297326</v>
+        <v>54889</v>
       </c>
       <c r="R11" s="1">
-        <v>357049</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
       </c>
       <c r="T11" s="1">
-        <v>1297326</v>
+        <v>54889</v>
       </c>
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="1">
-        <v>46262</v>
+        <v>46953</v>
       </c>
       <c r="B12" s="1">
-        <v>39924</v>
+        <v>40543</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1">
-        <v>234</v>
+        <v>586</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1">
-        <v>0.025874961834431</v>
+        <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>0.025874961834431</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="O12" s="1">
-        <v>386474</v>
+        <v>321168</v>
       </c>
       <c r="P12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <v>376474</v>
+        <v>347968</v>
       </c>
       <c r="R12" s="1">
-        <v>0</v>
+        <v>114996</v>
       </c>
       <c r="S12" s="1">
         <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>376474</v>
+        <v>347968</v>
       </c>
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="1">
-        <v>46266</v>
+        <v>46954</v>
       </c>
       <c r="B13" s="1">
-        <v>38688</v>
+        <v>24213</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>29</v>
@@ -1374,7 +1330,7 @@
         <v>30</v>
       </c>
       <c r="G13" s="1">
-        <v>-424</v>
+        <v>-809</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>31</v>
@@ -1382,50 +1338,52 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1">
+        <v>7</v>
+      </c>
       <c r="K13" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L13" s="1">
-        <v>0.3321514447569</v>
+        <v>0.58264534180801</v>
       </c>
       <c r="M13" s="1">
-        <v>0.3321514447569</v>
+        <v>0.58264534180801</v>
       </c>
       <c r="N13" s="1">
-        <v>5950</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>79648</v>
+        <v>36198</v>
       </c>
       <c r="P13" s="1">
-        <v>32600</v>
+        <v>67468</v>
       </c>
       <c r="Q13" s="1">
-        <v>65548</v>
+        <v>48328</v>
       </c>
       <c r="R13" s="1">
-        <v>6000</v>
+        <v>56026</v>
       </c>
       <c r="S13" s="1">
         <v>0</v>
       </c>
       <c r="T13" s="1">
-        <v>65548</v>
+        <v>48328</v>
       </c>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="1">
-        <v>46267</v>
+        <v>46955</v>
       </c>
       <c r="B14" s="1">
-        <v>39856</v>
+        <v>40688</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>29</v>
@@ -1434,7 +1392,7 @@
         <v>30</v>
       </c>
       <c r="G14" s="1">
-        <v>-423</v>
+        <v>-652</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>31</v>
@@ -1442,50 +1400,52 @@
       <c r="I14" s="1">
         <v>0</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1">
+        <v>8</v>
+      </c>
       <c r="K14" s="1">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L14" s="1">
-        <v>0.78429400506745</v>
+        <v>0.74338680526892</v>
       </c>
       <c r="M14" s="1">
-        <v>0.78429400506745</v>
+        <v>0.74338680526892</v>
       </c>
       <c r="N14" s="1">
-        <v>12400</v>
+        <v>11179</v>
       </c>
       <c r="O14" s="1">
-        <v>69300</v>
+        <v>14980</v>
       </c>
       <c r="P14" s="1">
-        <v>506101</v>
+        <v>371008</v>
       </c>
       <c r="Q14" s="1">
-        <v>139194</v>
+        <v>128070</v>
       </c>
       <c r="R14" s="1">
-        <v>102178</v>
+        <v>134522</v>
       </c>
       <c r="S14" s="1">
         <v>0</v>
       </c>
       <c r="T14" s="1">
-        <v>139194</v>
+        <v>128070</v>
       </c>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="1">
-        <v>46273</v>
+        <v>46960</v>
       </c>
       <c r="B15" s="1">
-        <v>39930</v>
+        <v>40693</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>29</v>
@@ -1494,7 +1454,7 @@
         <v>30</v>
       </c>
       <c r="G15" s="1">
-        <v>-45</v>
+        <v>-149</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>31</v>
@@ -1503,51 +1463,51 @@
         <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="L15" s="1">
-        <v>0.16683906703594</v>
+        <v>0.3243175278249</v>
       </c>
       <c r="M15" s="1">
-        <v>0.16683906703594</v>
+        <v>0.3243175278249</v>
       </c>
       <c r="N15" s="1">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O15" s="1">
-        <v>29969</v>
+        <v>1251861</v>
       </c>
       <c r="P15" s="1">
-        <v>5000</v>
+        <v>780259</v>
       </c>
       <c r="Q15" s="1">
-        <v>24969</v>
+        <v>1625590</v>
       </c>
       <c r="R15" s="1">
-        <v>0</v>
+        <v>546588</v>
       </c>
       <c r="S15" s="1">
         <v>0</v>
       </c>
       <c r="T15" s="1">
-        <v>24969</v>
+        <v>1625590</v>
       </c>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="1">
-        <v>46274</v>
+        <v>46961</v>
       </c>
       <c r="B16" s="1">
-        <v>39934</v>
+        <v>40694</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>29</v>
@@ -1556,7 +1516,7 @@
         <v>30</v>
       </c>
       <c r="G16" s="1">
-        <v>-386</v>
+        <v>-208</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>31</v>
@@ -1565,150 +1525,150 @@
         <v>0</v>
       </c>
       <c r="J16" s="1">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L16" s="1">
-        <v>0</v>
+        <v>0.4726433750824</v>
       </c>
       <c r="M16" s="1">
-        <v>0</v>
+        <v>0.4726433750824</v>
       </c>
       <c r="N16" s="1">
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="O16" s="1">
-        <v>0</v>
+        <v>65000</v>
       </c>
       <c r="P16" s="1">
-        <v>0</v>
+        <v>157740</v>
       </c>
       <c r="Q16" s="1">
-        <v>27000</v>
+        <v>176000</v>
       </c>
       <c r="R16" s="1">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="S16" s="1">
         <v>0</v>
       </c>
       <c r="T16" s="1">
-        <v>27000</v>
+        <v>176000</v>
       </c>
     </row>
     <row r="17" spans="1:29">
       <c r="A17" s="1">
-        <v>46276</v>
+        <v>46962</v>
       </c>
       <c r="B17" s="1">
-        <v>39898</v>
+        <v>40697</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G17" s="1">
-        <v>-216</v>
+        <v>334</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J17" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K17" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L17" s="1">
-        <v>0.16783784816901</v>
+        <v>0.12806535930543</v>
       </c>
       <c r="M17" s="1">
-        <v>0.16783784816901</v>
+        <v>0.12806535930543</v>
       </c>
       <c r="N17" s="1">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O17" s="1">
-        <v>606328</v>
+        <v>132766</v>
       </c>
       <c r="P17" s="1">
-        <v>52689</v>
+        <v>19500</v>
       </c>
       <c r="Q17" s="1">
-        <v>261239</v>
+        <v>132766</v>
       </c>
       <c r="R17" s="1">
-        <v>0</v>
+        <v>20356</v>
       </c>
       <c r="S17" s="1">
         <v>0</v>
       </c>
       <c r="T17" s="1">
-        <v>261239</v>
+        <v>132766</v>
       </c>
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="1">
-        <v>46277</v>
+        <v>46963</v>
       </c>
       <c r="B18" s="1">
-        <v>39936</v>
+        <v>40696</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
-        <v>329</v>
+        <v>459</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I18" s="1">
         <v>3000</v>
       </c>
       <c r="J18" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K18" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1">
-        <v>0.078442459501328</v>
+        <v>0</v>
       </c>
       <c r="M18" s="1">
-        <v>0.078442459501328</v>
+        <v>0</v>
       </c>
       <c r="N18" s="1">
-        <v>9900</v>
+        <v>15000</v>
       </c>
       <c r="O18" s="1">
-        <v>1778717</v>
+        <v>227648</v>
       </c>
       <c r="P18" s="1">
-        <v>67700</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="1">
-        <v>795353</v>
+        <v>227648</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
@@ -1717,862 +1677,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="1">
-        <v>795353</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29">
-      <c r="A19" s="1">
-        <v>46278</v>
-      </c>
-      <c r="B19" s="1">
-        <v>39933</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="1">
-        <v>-130</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>4</v>
-      </c>
-      <c r="K19" s="1">
-        <v>3</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0.35545123231824</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0.35545123231824</v>
-      </c>
-      <c r="N19" s="1">
-        <v>5000</v>
-      </c>
-      <c r="O19" s="1">
-        <v>55945</v>
-      </c>
-      <c r="P19" s="1">
-        <v>28772</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>52173</v>
-      </c>
-      <c r="R19" s="1">
-        <v>6000</v>
-      </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
-      <c r="T19" s="1">
-        <v>52173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29">
-      <c r="A20" s="1">
-        <v>46280</v>
-      </c>
-      <c r="B20" s="1">
-        <v>18369</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1">
-        <v>412</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="1">
-        <v>5000</v>
-      </c>
-      <c r="J20" s="1">
-        <v>22</v>
-      </c>
-      <c r="U20" s="1">
-        <v>19523</v>
-      </c>
-      <c r="V20" s="1">
-        <v>2</v>
-      </c>
-      <c r="W20" s="1">
-        <v>1886.5</v>
-      </c>
-      <c r="X20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="1">
-        <v>0.29689158337596</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="1">
-        <v>18.79175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29">
-      <c r="A21" s="1">
-        <v>46282</v>
-      </c>
-      <c r="B21" s="1">
-        <v>39943</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1">
-        <v>603</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="1">
-        <v>3000</v>
-      </c>
-      <c r="J21" s="1">
-        <v>2</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0.044761688768994</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0.044761688768994</v>
-      </c>
-      <c r="N21" s="1">
-        <v>16628</v>
-      </c>
-      <c r="O21" s="1">
-        <v>354558</v>
-      </c>
-      <c r="P21" s="1">
-        <v>15000</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>320108</v>
-      </c>
-      <c r="R21" s="1">
-        <v>52947</v>
-      </c>
-      <c r="S21" s="1">
-        <v>0</v>
-      </c>
-      <c r="T21" s="1">
-        <v>320108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29">
-      <c r="A22" s="1">
-        <v>46283</v>
-      </c>
-      <c r="B22" s="1">
-        <v>39942</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="1">
-        <v>417</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="1">
-        <v>3000</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1">
-        <v>2</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0.083310191613441</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0.083310191613441</v>
-      </c>
-      <c r="N22" s="1">
-        <v>8000</v>
-      </c>
-      <c r="O22" s="1">
-        <v>190000</v>
-      </c>
-      <c r="P22" s="1">
-        <v>15000</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>165050</v>
-      </c>
-      <c r="R22" s="1">
-        <v>20450</v>
-      </c>
-      <c r="S22" s="1">
-        <v>0</v>
-      </c>
-      <c r="T22" s="1">
-        <v>165050</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29">
-      <c r="A23" s="1">
-        <v>46284</v>
-      </c>
-      <c r="B23" s="1">
-        <v>39944</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="1">
-        <v>559</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="1">
-        <v>3000</v>
-      </c>
-      <c r="J23" s="1">
-        <v>6</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1">
-        <v>7000</v>
-      </c>
-      <c r="O23" s="1">
-        <v>241043</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>330767</v>
-      </c>
-      <c r="R23" s="1">
-        <v>49199</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0</v>
-      </c>
-      <c r="T23" s="1">
-        <v>330767</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29">
-      <c r="A24" s="1">
-        <v>46285</v>
-      </c>
-      <c r="B24" s="1">
-        <v>35861</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1">
-        <v>613</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="1">
-        <v>3000</v>
-      </c>
-      <c r="J24" s="1">
-        <v>14</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1">
-        <v>6000</v>
-      </c>
-      <c r="O24" s="1">
-        <v>257845</v>
-      </c>
-      <c r="P24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>670057</v>
-      </c>
-      <c r="R24" s="1">
-        <v>261492</v>
-      </c>
-      <c r="S24" s="1">
-        <v>0</v>
-      </c>
-      <c r="T24" s="1">
-        <v>670057</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29">
-      <c r="A25" s="1">
-        <v>46286</v>
-      </c>
-      <c r="B25" s="1">
-        <v>39948</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="1">
-        <v>90</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>24</v>
-      </c>
-      <c r="K25" s="1">
-        <v>4</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0.053619166043237</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0.053619166043237</v>
-      </c>
-      <c r="N25" s="1">
-        <v>6000</v>
-      </c>
-      <c r="O25" s="1">
-        <v>220440</v>
-      </c>
-      <c r="P25" s="1">
-        <v>21000</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>370651</v>
-      </c>
-      <c r="R25" s="1">
-        <v>198961</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0</v>
-      </c>
-      <c r="T25" s="1">
-        <v>370651</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29">
-      <c r="A26" s="1">
-        <v>46287</v>
-      </c>
-      <c r="B26" s="1">
-        <v>35156</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="1">
-        <v>-75</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
-        <v>12</v>
-      </c>
-      <c r="K26" s="1">
-        <v>38</v>
-      </c>
-      <c r="L26" s="1">
-        <v>0.45725795006923</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0.45725795006923</v>
-      </c>
-      <c r="N26" s="1">
-        <v>15000</v>
-      </c>
-      <c r="O26" s="1">
-        <v>496596</v>
-      </c>
-      <c r="P26" s="1">
-        <v>476867</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>566017</v>
-      </c>
-      <c r="R26" s="1">
-        <v>389712</v>
-      </c>
-      <c r="S26" s="1">
-        <v>0</v>
-      </c>
-      <c r="T26" s="1">
-        <v>566017</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29">
-      <c r="A27" s="1">
-        <v>46288</v>
-      </c>
-      <c r="B27" s="1">
-        <v>39952</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1">
-        <v>568</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="1">
-        <v>3000</v>
-      </c>
-      <c r="J27" s="1">
-        <v>6</v>
-      </c>
-      <c r="K27" s="1">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1">
-        <v>0.017227715949419</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0.017227715949419</v>
-      </c>
-      <c r="N27" s="1">
-        <v>6500</v>
-      </c>
-      <c r="O27" s="1">
-        <v>506314</v>
-      </c>
-      <c r="P27" s="1">
-        <v>9000</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>513414</v>
-      </c>
-      <c r="R27" s="1">
-        <v>111327</v>
-      </c>
-      <c r="S27" s="1">
-        <v>0</v>
-      </c>
-      <c r="T27" s="1">
-        <v>513414</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29">
-      <c r="A28" s="1">
-        <v>46290</v>
-      </c>
-      <c r="B28" s="1">
-        <v>39954</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="1">
-        <v>234</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0</v>
-      </c>
-      <c r="L28" s="1">
-        <v>0</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0</v>
-      </c>
-      <c r="N28" s="1">
-        <v>0</v>
-      </c>
-      <c r="O28" s="1">
-        <v>146254</v>
-      </c>
-      <c r="P28" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>136254</v>
-      </c>
-      <c r="R28" s="1">
-        <v>0</v>
-      </c>
-      <c r="S28" s="1">
-        <v>0</v>
-      </c>
-      <c r="T28" s="1">
-        <v>136254</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29">
-      <c r="A29" s="1">
-        <v>46293</v>
-      </c>
-      <c r="B29" s="1">
-        <v>39957</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1">
-        <v>613</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="1">
-        <v>3000</v>
-      </c>
-      <c r="J29" s="1">
-        <v>6</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0</v>
-      </c>
-      <c r="N29" s="1">
-        <v>8000</v>
-      </c>
-      <c r="O29" s="1">
-        <v>3943981</v>
-      </c>
-      <c r="P29" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>4433490</v>
-      </c>
-      <c r="R29" s="1">
-        <v>85800</v>
-      </c>
-      <c r="S29" s="1">
-        <v>0</v>
-      </c>
-      <c r="T29" s="1">
-        <v>4433490</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29">
-      <c r="A30" s="1">
-        <v>46295</v>
-      </c>
-      <c r="B30" s="1">
-        <v>39959</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="1">
-        <v>-500</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0</v>
-      </c>
-      <c r="K30" s="1">
-        <v>11</v>
-      </c>
-      <c r="L30" s="1">
-        <v>0.36144149468439</v>
-      </c>
-      <c r="M30" s="1">
-        <v>0.36144149468439</v>
-      </c>
-      <c r="N30" s="1">
-        <v>2750</v>
-      </c>
-      <c r="O30" s="1">
-        <v>97778</v>
-      </c>
-      <c r="P30" s="1">
-        <v>53819</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>95082</v>
-      </c>
-      <c r="R30" s="1">
-        <v>0</v>
-      </c>
-      <c r="S30" s="1">
-        <v>0</v>
-      </c>
-      <c r="T30" s="1">
-        <v>95082</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29">
-      <c r="A31" s="1">
-        <v>46296</v>
-      </c>
-      <c r="B31" s="1">
-        <v>39960</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="1">
-        <v>-75</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1">
-        <v>23</v>
-      </c>
-      <c r="K31" s="1">
-        <v>31</v>
-      </c>
-      <c r="L31" s="1">
-        <v>0.39410936616626</v>
-      </c>
-      <c r="M31" s="1">
-        <v>0.39410936616626</v>
-      </c>
-      <c r="N31" s="1">
-        <v>15000</v>
-      </c>
-      <c r="O31" s="1">
-        <v>589356</v>
-      </c>
-      <c r="P31" s="1">
-        <v>593228</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>912009</v>
-      </c>
-      <c r="R31" s="1">
-        <v>456305</v>
-      </c>
-      <c r="S31" s="1">
-        <v>0</v>
-      </c>
-      <c r="T31" s="1">
-        <v>912009</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29">
-      <c r="A32" s="1">
-        <v>46297</v>
-      </c>
-      <c r="B32" s="1">
-        <v>39962</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" s="1">
-        <v>-308</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="1">
-        <v>23</v>
-      </c>
-      <c r="K32" s="1">
-        <v>24</v>
-      </c>
-      <c r="L32" s="1">
-        <v>0.51854961812608</v>
-      </c>
-      <c r="M32" s="1">
-        <v>0.51854961812608</v>
-      </c>
-      <c r="N32" s="1">
-        <v>20000</v>
-      </c>
-      <c r="O32" s="1">
-        <v>253148</v>
-      </c>
-      <c r="P32" s="1">
-        <v>406965</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>377849</v>
-      </c>
-      <c r="R32" s="1">
-        <v>174826</v>
-      </c>
-      <c r="S32" s="1">
-        <v>0</v>
-      </c>
-      <c r="T32" s="1">
-        <v>377849</v>
+        <v>227648</v>
       </c>
     </row>
   </sheetData>
